--- a/pholcus_pkg/text_out/2018-01-06 001057/拉勾-岗位__Java__0-450.xlsx
+++ b/pholcus_pkg/text_out/2018-01-06 001057/拉勾-岗位__Java__0-450.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Go XLSX"/>
-  <workbookPr showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Darain/Downloads/Workspaces/go/texas-holdem-go/pholcus_pkg/text_out/2018-01-06 001057/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" tabRatio="204" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="16640" tabRatio="204"/>
   </bookViews>
   <sheets>
-    <sheet name="outputResult" sheetId="1" r:id="rId1" state="visible"/>
+    <sheet name="outputResult" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr iterateCount="100" refMode="A1" iterateDelta="0.001"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">outputResult!$C$1:$C$451</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="1180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4061" uniqueCount="1180">
   <si>
     <t>jobName</t>
   </si>
@@ -3561,44 +3567,59 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
-      <family val="0"/>
-      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="FangSong"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="00000000"/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment horizontal="" indent="0" shrinkToFit="0" textRotation="0" vertical="" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment horizontal="" indent="0" shrinkToFit="0" textRotation="0" vertical="" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3923,31 +3944,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J451"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.5"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.5"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.5"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.5"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.5"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.5"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.5"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.5"/>
+    <col min="1" max="10" width="9.5"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3979,7 +3989,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -3992,7 +4002,6 @@
       <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s"/>
       <c r="F2" t="s">
         <v>14</v>
       </c>
@@ -4009,7 +4018,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -4022,7 +4031,6 @@
       <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s"/>
       <c r="F3" t="s">
         <v>14</v>
       </c>
@@ -4039,7 +4047,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -4052,7 +4060,6 @@
       <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="s"/>
       <c r="F4" t="s">
         <v>28</v>
       </c>
@@ -4069,7 +4076,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -4082,7 +4089,6 @@
       <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s"/>
       <c r="F5" t="s">
         <v>14</v>
       </c>
@@ -4099,7 +4105,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -4112,7 +4118,6 @@
       <c r="D6" t="s">
         <v>40</v>
       </c>
-      <c r="E6" t="s"/>
       <c r="F6" t="s">
         <v>41</v>
       </c>
@@ -4129,7 +4134,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -4142,7 +4147,6 @@
       <c r="D7" t="s">
         <v>48</v>
       </c>
-      <c r="E7" t="s"/>
       <c r="F7" t="s">
         <v>14</v>
       </c>
@@ -4159,7 +4163,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -4172,7 +4176,6 @@
       <c r="D8" t="s">
         <v>54</v>
       </c>
-      <c r="E8" t="s"/>
       <c r="F8" t="s">
         <v>28</v>
       </c>
@@ -4189,7 +4192,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -4202,7 +4205,6 @@
       <c r="D9" t="s">
         <v>59</v>
       </c>
-      <c r="E9" t="s"/>
       <c r="F9" t="s">
         <v>14</v>
       </c>
@@ -4219,7 +4221,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -4232,7 +4234,6 @@
       <c r="D10" t="s">
         <v>64</v>
       </c>
-      <c r="E10" t="s"/>
       <c r="F10" t="s">
         <v>65</v>
       </c>
@@ -4249,7 +4250,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -4262,7 +4263,6 @@
       <c r="D11" t="s">
         <v>70</v>
       </c>
-      <c r="E11" t="s"/>
       <c r="F11" t="s">
         <v>14</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -4292,7 +4292,6 @@
       <c r="D12" t="s">
         <v>77</v>
       </c>
-      <c r="E12" t="s"/>
       <c r="F12" t="s">
         <v>14</v>
       </c>
@@ -4309,7 +4308,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4322,7 +4321,6 @@
       <c r="D13" t="s">
         <v>81</v>
       </c>
-      <c r="E13" t="s"/>
       <c r="F13" t="s">
         <v>14</v>
       </c>
@@ -4339,7 +4337,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>85</v>
       </c>
@@ -4352,7 +4350,6 @@
       <c r="D14" t="s">
         <v>87</v>
       </c>
-      <c r="E14" t="s"/>
       <c r="F14" t="s">
         <v>28</v>
       </c>
@@ -4369,7 +4366,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>90</v>
       </c>
@@ -4382,7 +4379,6 @@
       <c r="D15" t="s">
         <v>92</v>
       </c>
-      <c r="E15" t="s"/>
       <c r="F15" t="s">
         <v>14</v>
       </c>
@@ -4399,7 +4395,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>90</v>
       </c>
@@ -4412,7 +4408,6 @@
       <c r="D16" t="s">
         <v>97</v>
       </c>
-      <c r="E16" t="s"/>
       <c r="F16" t="s">
         <v>14</v>
       </c>
@@ -4429,7 +4424,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>100</v>
       </c>
@@ -4442,7 +4437,6 @@
       <c r="D17" t="s">
         <v>27</v>
       </c>
-      <c r="E17" t="s"/>
       <c r="F17" t="s">
         <v>14</v>
       </c>
@@ -4459,7 +4453,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -4472,7 +4466,6 @@
       <c r="D18" t="s">
         <v>20</v>
       </c>
-      <c r="E18" t="s"/>
       <c r="F18" t="s">
         <v>14</v>
       </c>
@@ -4489,7 +4482,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -4502,7 +4495,6 @@
       <c r="D19" t="s">
         <v>103</v>
       </c>
-      <c r="E19" t="s"/>
       <c r="F19" t="s">
         <v>14</v>
       </c>
@@ -4519,7 +4511,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>90</v>
       </c>
@@ -4532,7 +4524,6 @@
       <c r="D20" t="s">
         <v>107</v>
       </c>
-      <c r="E20" t="s"/>
       <c r="F20" t="s">
         <v>14</v>
       </c>
@@ -4549,7 +4540,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -4562,7 +4553,6 @@
       <c r="D21" t="s">
         <v>112</v>
       </c>
-      <c r="E21" t="s"/>
       <c r="F21" t="s">
         <v>14</v>
       </c>
@@ -4579,7 +4569,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -4592,7 +4582,6 @@
       <c r="D22" t="s">
         <v>115</v>
       </c>
-      <c r="E22" t="s"/>
       <c r="F22" t="s">
         <v>14</v>
       </c>
@@ -4609,7 +4598,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>90</v>
       </c>
@@ -4622,7 +4611,6 @@
       <c r="D23" t="s">
         <v>120</v>
       </c>
-      <c r="E23" t="s"/>
       <c r="F23" t="s">
         <v>14</v>
       </c>
@@ -4639,7 +4627,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -4652,7 +4640,6 @@
       <c r="D24" t="s">
         <v>125</v>
       </c>
-      <c r="E24" t="s"/>
       <c r="F24" t="s">
         <v>14</v>
       </c>
@@ -4669,7 +4656,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -4682,7 +4669,6 @@
       <c r="D25" t="s">
         <v>130</v>
       </c>
-      <c r="E25" t="s"/>
       <c r="F25" t="s">
         <v>14</v>
       </c>
@@ -4699,7 +4685,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -4712,7 +4698,6 @@
       <c r="D26" t="s">
         <v>134</v>
       </c>
-      <c r="E26" t="s"/>
       <c r="F26" t="s">
         <v>14</v>
       </c>
@@ -4729,7 +4714,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>137</v>
       </c>
@@ -4742,7 +4727,6 @@
       <c r="D27" t="s">
         <v>13</v>
       </c>
-      <c r="E27" t="s"/>
       <c r="F27" t="s">
         <v>14</v>
       </c>
@@ -4759,7 +4743,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -4772,7 +4756,6 @@
       <c r="D28" t="s">
         <v>33</v>
       </c>
-      <c r="E28" t="s"/>
       <c r="F28" t="s">
         <v>14</v>
       </c>
@@ -4789,7 +4772,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -4802,7 +4785,6 @@
       <c r="D29" t="s">
         <v>59</v>
       </c>
-      <c r="E29" t="s"/>
       <c r="F29" t="s">
         <v>14</v>
       </c>
@@ -4819,7 +4801,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -4832,7 +4814,6 @@
       <c r="D30" t="s">
         <v>143</v>
       </c>
-      <c r="E30" t="s"/>
       <c r="F30" t="s">
         <v>14</v>
       </c>
@@ -4849,7 +4830,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -4862,7 +4843,6 @@
       <c r="D31" t="s">
         <v>148</v>
       </c>
-      <c r="E31" t="s"/>
       <c r="F31" t="s">
         <v>14</v>
       </c>
@@ -4879,7 +4859,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>75</v>
       </c>
@@ -4892,7 +4872,6 @@
       <c r="D32" t="s">
         <v>151</v>
       </c>
-      <c r="E32" t="s"/>
       <c r="F32" t="s">
         <v>14</v>
       </c>
@@ -4909,7 +4888,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>75</v>
       </c>
@@ -4922,7 +4901,6 @@
       <c r="D33" t="s">
         <v>155</v>
       </c>
-      <c r="E33" t="s"/>
       <c r="F33" t="s">
         <v>14</v>
       </c>
@@ -4939,7 +4917,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -4952,7 +4930,6 @@
       <c r="D34" t="s">
         <v>160</v>
       </c>
-      <c r="E34" t="s"/>
       <c r="F34" t="s">
         <v>41</v>
       </c>
@@ -4969,7 +4946,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -4982,7 +4959,6 @@
       <c r="D35" t="s">
         <v>164</v>
       </c>
-      <c r="E35" t="s"/>
       <c r="F35" t="s">
         <v>14</v>
       </c>
@@ -4999,7 +4975,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>75</v>
       </c>
@@ -5012,7 +4988,6 @@
       <c r="D36" t="s">
         <v>27</v>
       </c>
-      <c r="E36" t="s"/>
       <c r="F36" t="s">
         <v>14</v>
       </c>
@@ -5029,7 +5004,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -5042,7 +5017,6 @@
       <c r="D37" t="s">
         <v>169</v>
       </c>
-      <c r="E37" t="s"/>
       <c r="F37" t="s">
         <v>14</v>
       </c>
@@ -5059,7 +5033,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>173</v>
       </c>
@@ -5072,7 +5046,6 @@
       <c r="D38" t="s">
         <v>174</v>
       </c>
-      <c r="E38" t="s"/>
       <c r="F38" t="s">
         <v>14</v>
       </c>
@@ -5089,7 +5062,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -5102,7 +5075,6 @@
       <c r="D39" t="s">
         <v>177</v>
       </c>
-      <c r="E39" t="s"/>
       <c r="F39" t="s">
         <v>14</v>
       </c>
@@ -5119,7 +5091,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -5132,7 +5104,6 @@
       <c r="D40" t="s">
         <v>181</v>
       </c>
-      <c r="E40" t="s"/>
       <c r="F40" t="s">
         <v>14</v>
       </c>
@@ -5149,7 +5120,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>75</v>
       </c>
@@ -5162,7 +5133,6 @@
       <c r="D41" t="s">
         <v>184</v>
       </c>
-      <c r="E41" t="s"/>
       <c r="F41" t="s">
         <v>14</v>
       </c>
@@ -5179,7 +5149,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>188</v>
       </c>
@@ -5192,7 +5162,6 @@
       <c r="D42" t="s">
         <v>112</v>
       </c>
-      <c r="E42" t="s"/>
       <c r="F42" t="s">
         <v>14</v>
       </c>
@@ -5209,7 +5178,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -5222,7 +5191,6 @@
       <c r="D43" t="s">
         <v>191</v>
       </c>
-      <c r="E43" t="s"/>
       <c r="F43" t="s">
         <v>14</v>
       </c>
@@ -5239,7 +5207,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>194</v>
       </c>
@@ -5252,7 +5220,6 @@
       <c r="D44" t="s">
         <v>196</v>
       </c>
-      <c r="E44" t="s"/>
       <c r="F44" t="s">
         <v>28</v>
       </c>
@@ -5269,7 +5236,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>200</v>
       </c>
@@ -5282,7 +5249,6 @@
       <c r="D45" t="s">
         <v>201</v>
       </c>
-      <c r="E45" t="s"/>
       <c r="F45" t="s">
         <v>65</v>
       </c>
@@ -5299,7 +5265,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -5312,7 +5278,6 @@
       <c r="D46" t="s">
         <v>204</v>
       </c>
-      <c r="E46" t="s"/>
       <c r="F46" t="s">
         <v>14</v>
       </c>
@@ -5329,7 +5294,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>75</v>
       </c>
@@ -5342,7 +5307,6 @@
       <c r="D47" t="s">
         <v>27</v>
       </c>
-      <c r="E47" t="s"/>
       <c r="F47" t="s">
         <v>14</v>
       </c>
@@ -5359,7 +5323,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>75</v>
       </c>
@@ -5372,7 +5336,6 @@
       <c r="D48" t="s">
         <v>151</v>
       </c>
-      <c r="E48" t="s"/>
       <c r="F48" t="s">
         <v>14</v>
       </c>
@@ -5389,7 +5352,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -5402,7 +5365,6 @@
       <c r="D49" t="s">
         <v>33</v>
       </c>
-      <c r="E49" t="s"/>
       <c r="F49" t="s">
         <v>14</v>
       </c>
@@ -5419,7 +5381,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -5432,7 +5394,6 @@
       <c r="D50" t="s">
         <v>212</v>
       </c>
-      <c r="E50" t="s"/>
       <c r="F50" t="s">
         <v>14</v>
       </c>
@@ -5449,7 +5410,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -5462,7 +5423,6 @@
       <c r="D51" t="s">
         <v>112</v>
       </c>
-      <c r="E51" t="s"/>
       <c r="F51" t="s">
         <v>14</v>
       </c>
@@ -5479,7 +5439,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -5492,7 +5452,6 @@
       <c r="D52" t="s">
         <v>216</v>
       </c>
-      <c r="E52" t="s"/>
       <c r="F52" t="s">
         <v>14</v>
       </c>
@@ -5509,7 +5468,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -5522,7 +5481,6 @@
       <c r="D53" t="s">
         <v>219</v>
       </c>
-      <c r="E53" t="s"/>
       <c r="F53" t="s">
         <v>65</v>
       </c>
@@ -5539,7 +5497,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -5552,7 +5510,6 @@
       <c r="D54" t="s">
         <v>64</v>
       </c>
-      <c r="E54" t="s"/>
       <c r="F54" t="s">
         <v>14</v>
       </c>
@@ -5569,7 +5526,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -5582,7 +5539,6 @@
       <c r="D55" t="s">
         <v>224</v>
       </c>
-      <c r="E55" t="s"/>
       <c r="F55" t="s">
         <v>14</v>
       </c>
@@ -5599,7 +5555,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>75</v>
       </c>
@@ -5612,7 +5568,6 @@
       <c r="D56" t="s">
         <v>229</v>
       </c>
-      <c r="E56" t="s"/>
       <c r="F56" t="s">
         <v>14</v>
       </c>
@@ -5629,7 +5584,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>37</v>
       </c>
@@ -5642,7 +5597,6 @@
       <c r="D57" t="s">
         <v>233</v>
       </c>
-      <c r="E57" t="s"/>
       <c r="F57" t="s">
         <v>14</v>
       </c>
@@ -5659,7 +5613,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>75</v>
       </c>
@@ -5672,7 +5626,6 @@
       <c r="D58" t="s">
         <v>237</v>
       </c>
-      <c r="E58" t="s"/>
       <c r="F58" t="s">
         <v>14</v>
       </c>
@@ -5689,7 +5642,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -5702,7 +5655,6 @@
       <c r="D59" t="s">
         <v>240</v>
       </c>
-      <c r="E59" t="s"/>
       <c r="F59" t="s">
         <v>65</v>
       </c>
@@ -5719,7 +5671,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>75</v>
       </c>
@@ -5732,7 +5684,6 @@
       <c r="D60" t="s">
         <v>243</v>
       </c>
-      <c r="E60" t="s"/>
       <c r="F60" t="s">
         <v>14</v>
       </c>
@@ -5749,7 +5700,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>194</v>
       </c>
@@ -5762,7 +5713,6 @@
       <c r="D61" t="s">
         <v>246</v>
       </c>
-      <c r="E61" t="s"/>
       <c r="F61" t="s">
         <v>65</v>
       </c>
@@ -5779,7 +5729,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>200</v>
       </c>
@@ -5792,7 +5742,6 @@
       <c r="D62" t="s">
         <v>27</v>
       </c>
-      <c r="E62" t="s"/>
       <c r="F62" t="s">
         <v>28</v>
       </c>
@@ -5809,7 +5758,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -5822,7 +5771,6 @@
       <c r="D63" t="s">
         <v>112</v>
       </c>
-      <c r="E63" t="s"/>
       <c r="F63" t="s">
         <v>14</v>
       </c>
@@ -5839,7 +5787,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -5852,7 +5800,6 @@
       <c r="D64" t="s">
         <v>33</v>
       </c>
-      <c r="E64" t="s"/>
       <c r="F64" t="s">
         <v>14</v>
       </c>
@@ -5869,7 +5816,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>75</v>
       </c>
@@ -5882,7 +5829,6 @@
       <c r="D65" t="s">
         <v>212</v>
       </c>
-      <c r="E65" t="s"/>
       <c r="F65" t="s">
         <v>14</v>
       </c>
@@ -5899,7 +5845,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>258</v>
       </c>
@@ -5912,7 +5858,6 @@
       <c r="D66" t="s">
         <v>260</v>
       </c>
-      <c r="E66" t="s"/>
       <c r="F66" t="s">
         <v>14</v>
       </c>
@@ -5929,7 +5874,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -5942,7 +5887,6 @@
       <c r="D67" t="s">
         <v>229</v>
       </c>
-      <c r="E67" t="s"/>
       <c r="F67" t="s">
         <v>14</v>
       </c>
@@ -5959,7 +5903,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>258</v>
       </c>
@@ -5972,7 +5916,6 @@
       <c r="D68" t="s">
         <v>267</v>
       </c>
-      <c r="E68" t="s"/>
       <c r="F68" t="s">
         <v>14</v>
       </c>
@@ -5989,7 +5932,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -6002,7 +5945,6 @@
       <c r="D69" t="s">
         <v>201</v>
       </c>
-      <c r="E69" t="s"/>
       <c r="F69" t="s">
         <v>14</v>
       </c>
@@ -6019,7 +5961,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -6051,7 +5993,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>57</v>
       </c>
@@ -6064,7 +6006,6 @@
       <c r="D71" t="s">
         <v>160</v>
       </c>
-      <c r="E71" t="s"/>
       <c r="F71" t="s">
         <v>28</v>
       </c>
@@ -6081,7 +6022,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -6094,7 +6035,6 @@
       <c r="D72" t="s">
         <v>279</v>
       </c>
-      <c r="E72" t="s"/>
       <c r="F72" t="s">
         <v>14</v>
       </c>
@@ -6111,7 +6051,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>194</v>
       </c>
@@ -6124,7 +6064,6 @@
       <c r="D73" t="s">
         <v>283</v>
       </c>
-      <c r="E73" t="s"/>
       <c r="F73" t="s">
         <v>28</v>
       </c>
@@ -6141,7 +6080,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>68</v>
       </c>
@@ -6154,7 +6093,6 @@
       <c r="D74" t="s">
         <v>196</v>
       </c>
-      <c r="E74" t="s"/>
       <c r="F74" t="s">
         <v>28</v>
       </c>
@@ -6171,7 +6109,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>173</v>
       </c>
@@ -6184,7 +6122,6 @@
       <c r="D75" t="s">
         <v>288</v>
       </c>
-      <c r="E75" t="s"/>
       <c r="F75" t="s">
         <v>14</v>
       </c>
@@ -6201,7 +6138,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>90</v>
       </c>
@@ -6214,7 +6151,6 @@
       <c r="D76" t="s">
         <v>291</v>
       </c>
-      <c r="E76" t="s"/>
       <c r="F76" t="s">
         <v>14</v>
       </c>
@@ -6231,7 +6167,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>200</v>
       </c>
@@ -6244,7 +6180,6 @@
       <c r="D77" t="s">
         <v>27</v>
       </c>
-      <c r="E77" t="s"/>
       <c r="F77" t="s">
         <v>14</v>
       </c>
@@ -6261,7 +6196,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -6274,7 +6209,6 @@
       <c r="D78" t="s">
         <v>33</v>
       </c>
-      <c r="E78" t="s"/>
       <c r="F78" t="s">
         <v>14</v>
       </c>
@@ -6291,7 +6225,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>188</v>
       </c>
@@ -6304,7 +6238,6 @@
       <c r="D79" t="s">
         <v>267</v>
       </c>
-      <c r="E79" t="s"/>
       <c r="F79" t="s">
         <v>14</v>
       </c>
@@ -6321,7 +6254,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>173</v>
       </c>
@@ -6334,7 +6267,6 @@
       <c r="D80" t="s">
         <v>288</v>
       </c>
-      <c r="E80" t="s"/>
       <c r="F80" t="s">
         <v>14</v>
       </c>
@@ -6351,7 +6283,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>200</v>
       </c>
@@ -6364,7 +6296,6 @@
       <c r="D81" t="s">
         <v>301</v>
       </c>
-      <c r="E81" t="s"/>
       <c r="F81" t="s">
         <v>14</v>
       </c>
@@ -6381,7 +6312,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -6394,7 +6325,6 @@
       <c r="D82" t="s">
         <v>304</v>
       </c>
-      <c r="E82" t="s"/>
       <c r="F82" t="s">
         <v>14</v>
       </c>
@@ -6411,7 +6341,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>200</v>
       </c>
@@ -6424,7 +6354,6 @@
       <c r="D83" t="s">
         <v>308</v>
       </c>
-      <c r="E83" t="s"/>
       <c r="F83" t="s">
         <v>28</v>
       </c>
@@ -6441,7 +6370,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>312</v>
       </c>
@@ -6454,7 +6383,6 @@
       <c r="D84" t="s">
         <v>313</v>
       </c>
-      <c r="E84" t="s"/>
       <c r="F84" t="s">
         <v>14</v>
       </c>
@@ -6471,7 +6399,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>68</v>
       </c>
@@ -6484,7 +6412,6 @@
       <c r="D85" t="s">
         <v>97</v>
       </c>
-      <c r="E85" t="s"/>
       <c r="F85" t="s">
         <v>41</v>
       </c>
@@ -6501,7 +6428,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>24</v>
       </c>
@@ -6514,7 +6441,6 @@
       <c r="D86" t="s">
         <v>318</v>
       </c>
-      <c r="E86" t="s"/>
       <c r="F86" t="s">
         <v>65</v>
       </c>
@@ -6531,7 +6457,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>75</v>
       </c>
@@ -6544,7 +6470,6 @@
       <c r="D87" t="s">
         <v>112</v>
       </c>
-      <c r="E87" t="s"/>
       <c r="F87" t="s">
         <v>14</v>
       </c>
@@ -6561,7 +6486,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>75</v>
       </c>
@@ -6574,7 +6499,6 @@
       <c r="D88" t="s">
         <v>212</v>
       </c>
-      <c r="E88" t="s"/>
       <c r="F88" t="s">
         <v>14</v>
       </c>
@@ -6591,7 +6515,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -6604,7 +6528,6 @@
       <c r="D89" t="s">
         <v>325</v>
       </c>
-      <c r="E89" t="s"/>
       <c r="F89" t="s">
         <v>28</v>
       </c>
@@ -6621,7 +6544,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -6634,7 +6557,6 @@
       <c r="D90" t="s">
         <v>328</v>
       </c>
-      <c r="E90" t="s"/>
       <c r="F90" t="s">
         <v>14</v>
       </c>
@@ -6651,7 +6573,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>200</v>
       </c>
@@ -6664,7 +6586,6 @@
       <c r="D91" t="s">
         <v>331</v>
       </c>
-      <c r="E91" t="s"/>
       <c r="F91" t="s">
         <v>65</v>
       </c>
@@ -6681,7 +6602,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>68</v>
       </c>
@@ -6694,7 +6615,6 @@
       <c r="D92" t="s">
         <v>27</v>
       </c>
-      <c r="E92" t="s"/>
       <c r="F92" t="s">
         <v>28</v>
       </c>
@@ -6711,7 +6631,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>57</v>
       </c>
@@ -6724,7 +6644,6 @@
       <c r="D93" t="s">
         <v>267</v>
       </c>
-      <c r="E93" t="s"/>
       <c r="F93" t="s">
         <v>14</v>
       </c>
@@ -6741,7 +6660,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>57</v>
       </c>
@@ -6754,7 +6673,6 @@
       <c r="D94" t="s">
         <v>33</v>
       </c>
-      <c r="E94" t="s"/>
       <c r="F94" t="s">
         <v>65</v>
       </c>
@@ -6771,7 +6689,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>188</v>
       </c>
@@ -6784,7 +6702,6 @@
       <c r="D95" t="s">
         <v>112</v>
       </c>
-      <c r="E95" t="s"/>
       <c r="F95" t="s">
         <v>14</v>
       </c>
@@ -6801,7 +6718,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>57</v>
       </c>
@@ -6814,7 +6731,6 @@
       <c r="D96" t="s">
         <v>338</v>
       </c>
-      <c r="E96" t="s"/>
       <c r="F96" t="s">
         <v>14</v>
       </c>
@@ -6831,7 +6747,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>75</v>
       </c>
@@ -6844,7 +6760,6 @@
       <c r="D97" t="s">
         <v>212</v>
       </c>
-      <c r="E97" t="s"/>
       <c r="F97" t="s">
         <v>14</v>
       </c>
@@ -6861,7 +6776,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>57</v>
       </c>
@@ -6874,7 +6789,6 @@
       <c r="D98" t="s">
         <v>343</v>
       </c>
-      <c r="E98" t="s"/>
       <c r="F98" t="s">
         <v>14</v>
       </c>
@@ -6891,7 +6805,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>57</v>
       </c>
@@ -6904,7 +6818,6 @@
       <c r="D99" t="s">
         <v>347</v>
       </c>
-      <c r="E99" t="s"/>
       <c r="F99" t="s">
         <v>14</v>
       </c>
@@ -6921,7 +6834,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>75</v>
       </c>
@@ -6934,7 +6847,6 @@
       <c r="D100" t="s">
         <v>350</v>
       </c>
-      <c r="E100" t="s"/>
       <c r="F100" t="s">
         <v>14</v>
       </c>
@@ -6951,7 +6863,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>75</v>
       </c>
@@ -6964,7 +6876,6 @@
       <c r="D101" t="s">
         <v>353</v>
       </c>
-      <c r="E101" t="s"/>
       <c r="F101" t="s">
         <v>14</v>
       </c>
@@ -6981,7 +6892,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>10</v>
       </c>
@@ -6994,7 +6905,6 @@
       <c r="D102" t="s">
         <v>356</v>
       </c>
-      <c r="E102" t="s"/>
       <c r="F102" t="s">
         <v>14</v>
       </c>
@@ -7011,7 +6921,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>10</v>
       </c>
@@ -7024,7 +6934,6 @@
       <c r="D103" t="s">
         <v>360</v>
       </c>
-      <c r="E103" t="s"/>
       <c r="F103" t="s">
         <v>14</v>
       </c>
@@ -7041,7 +6950,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>10</v>
       </c>
@@ -7054,7 +6963,6 @@
       <c r="D104" t="s">
         <v>363</v>
       </c>
-      <c r="E104" t="s"/>
       <c r="F104" t="s">
         <v>14</v>
       </c>
@@ -7071,7 +6979,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>90</v>
       </c>
@@ -7084,7 +6992,6 @@
       <c r="D105" t="s">
         <v>368</v>
       </c>
-      <c r="E105" t="s"/>
       <c r="F105" t="s">
         <v>14</v>
       </c>
@@ -7101,7 +7008,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>372</v>
       </c>
@@ -7114,7 +7021,6 @@
       <c r="D106" t="s">
         <v>59</v>
       </c>
-      <c r="E106" t="s"/>
       <c r="F106" t="s">
         <v>14</v>
       </c>
@@ -7131,7 +7037,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>10</v>
       </c>
@@ -7144,7 +7050,6 @@
       <c r="D107" t="s">
         <v>27</v>
       </c>
-      <c r="E107" t="s"/>
       <c r="F107" t="s">
         <v>28</v>
       </c>
@@ -7161,7 +7066,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>188</v>
       </c>
@@ -7174,7 +7079,6 @@
       <c r="D108" t="s">
         <v>267</v>
       </c>
-      <c r="E108" t="s"/>
       <c r="F108" t="s">
         <v>14</v>
       </c>
@@ -7191,7 +7095,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>75</v>
       </c>
@@ -7204,7 +7108,6 @@
       <c r="D109" t="s">
         <v>212</v>
       </c>
-      <c r="E109" t="s"/>
       <c r="F109" t="s">
         <v>14</v>
       </c>
@@ -7221,7 +7124,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>10</v>
       </c>
@@ -7234,7 +7137,6 @@
       <c r="D110" t="s">
         <v>377</v>
       </c>
-      <c r="E110" t="s"/>
       <c r="F110" t="s">
         <v>14</v>
       </c>
@@ -7251,7 +7153,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>312</v>
       </c>
@@ -7264,7 +7166,6 @@
       <c r="D111" t="s">
         <v>313</v>
       </c>
-      <c r="E111" t="s"/>
       <c r="F111" t="s">
         <v>14</v>
       </c>
@@ -7281,7 +7182,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>90</v>
       </c>
@@ -7294,7 +7195,6 @@
       <c r="D112" t="s">
         <v>381</v>
       </c>
-      <c r="E112" t="s"/>
       <c r="F112" t="s">
         <v>14</v>
       </c>
@@ -7311,7 +7211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>75</v>
       </c>
@@ -7324,7 +7224,6 @@
       <c r="D113" t="s">
         <v>384</v>
       </c>
-      <c r="E113" t="s"/>
       <c r="F113" t="s">
         <v>14</v>
       </c>
@@ -7341,7 +7240,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>200</v>
       </c>
@@ -7354,7 +7253,6 @@
       <c r="D114" t="s">
         <v>233</v>
       </c>
-      <c r="E114" t="s"/>
       <c r="F114" t="s">
         <v>14</v>
       </c>
@@ -7371,7 +7269,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>75</v>
       </c>
@@ -7384,7 +7282,6 @@
       <c r="D115" t="s">
         <v>388</v>
       </c>
-      <c r="E115" t="s"/>
       <c r="F115" t="s">
         <v>28</v>
       </c>
@@ -7401,7 +7298,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>90</v>
       </c>
@@ -7414,7 +7311,6 @@
       <c r="D116" t="s">
         <v>391</v>
       </c>
-      <c r="E116" t="s"/>
       <c r="F116" t="s">
         <v>14</v>
       </c>
@@ -7431,7 +7327,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>10</v>
       </c>
@@ -7444,7 +7340,6 @@
       <c r="D117" t="s">
         <v>97</v>
       </c>
-      <c r="E117" t="s"/>
       <c r="F117" t="s">
         <v>14</v>
       </c>
@@ -7461,7 +7356,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>396</v>
       </c>
@@ -7474,7 +7369,6 @@
       <c r="D118" t="s">
         <v>397</v>
       </c>
-      <c r="E118" t="s"/>
       <c r="F118" t="s">
         <v>65</v>
       </c>
@@ -7491,7 +7385,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>75</v>
       </c>
@@ -7504,7 +7398,6 @@
       <c r="D119" t="s">
         <v>54</v>
       </c>
-      <c r="E119" t="s"/>
       <c r="F119" t="s">
         <v>28</v>
       </c>
@@ -7521,7 +7414,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>75</v>
       </c>
@@ -7534,7 +7427,6 @@
       <c r="D120" t="s">
         <v>77</v>
       </c>
-      <c r="E120" t="s"/>
       <c r="F120" t="s">
         <v>14</v>
       </c>
@@ -7551,7 +7443,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>100</v>
       </c>
@@ -7564,7 +7456,6 @@
       <c r="D121" t="s">
         <v>177</v>
       </c>
-      <c r="E121" t="s"/>
       <c r="F121" t="s">
         <v>14</v>
       </c>
@@ -7581,7 +7472,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>37</v>
       </c>
@@ -7594,7 +7485,6 @@
       <c r="D122" t="s">
         <v>27</v>
       </c>
-      <c r="E122" t="s"/>
       <c r="F122" t="s">
         <v>28</v>
       </c>
@@ -7611,7 +7501,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>57</v>
       </c>
@@ -7624,7 +7514,6 @@
       <c r="D123" t="s">
         <v>212</v>
       </c>
-      <c r="E123" t="s"/>
       <c r="F123" t="s">
         <v>14</v>
       </c>
@@ -7641,7 +7530,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>10</v>
       </c>
@@ -7654,7 +7543,6 @@
       <c r="D124" t="s">
         <v>406</v>
       </c>
-      <c r="E124" t="s"/>
       <c r="F124" t="s">
         <v>28</v>
       </c>
@@ -7671,7 +7559,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>10</v>
       </c>
@@ -7684,7 +7572,6 @@
       <c r="D125" t="s">
         <v>410</v>
       </c>
-      <c r="E125" t="s"/>
       <c r="F125" t="s">
         <v>41</v>
       </c>
@@ -7701,7 +7588,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>57</v>
       </c>
@@ -7714,7 +7601,6 @@
       <c r="D126" t="s">
         <v>414</v>
       </c>
-      <c r="E126" t="s"/>
       <c r="F126" t="s">
         <v>14</v>
       </c>
@@ -7731,7 +7617,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>312</v>
       </c>
@@ -7744,7 +7630,6 @@
       <c r="D127" t="s">
         <v>418</v>
       </c>
-      <c r="E127" t="s"/>
       <c r="F127" t="s">
         <v>14</v>
       </c>
@@ -7761,7 +7646,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>188</v>
       </c>
@@ -7774,7 +7659,6 @@
       <c r="D128" t="s">
         <v>112</v>
       </c>
-      <c r="E128" t="s"/>
       <c r="F128" t="s">
         <v>14</v>
       </c>
@@ -7791,7 +7675,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>188</v>
       </c>
@@ -7804,7 +7688,6 @@
       <c r="D129" t="s">
         <v>59</v>
       </c>
-      <c r="E129" t="s"/>
       <c r="F129" t="s">
         <v>28</v>
       </c>
@@ -7821,7 +7704,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>200</v>
       </c>
@@ -7834,7 +7717,6 @@
       <c r="D130" t="s">
         <v>196</v>
       </c>
-      <c r="E130" t="s"/>
       <c r="F130" t="s">
         <v>28</v>
       </c>
@@ -7851,7 +7733,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>258</v>
       </c>
@@ -7864,7 +7746,6 @@
       <c r="D131" t="s">
         <v>425</v>
       </c>
-      <c r="E131" t="s"/>
       <c r="F131" t="s">
         <v>14</v>
       </c>
@@ -7881,7 +7762,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>10</v>
       </c>
@@ -7894,7 +7775,6 @@
       <c r="D132" t="s">
         <v>429</v>
       </c>
-      <c r="E132" t="s"/>
       <c r="F132" t="s">
         <v>65</v>
       </c>
@@ -7911,7 +7791,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>68</v>
       </c>
@@ -7924,7 +7804,6 @@
       <c r="D133" t="s">
         <v>433</v>
       </c>
-      <c r="E133" t="s"/>
       <c r="F133" t="s">
         <v>14</v>
       </c>
@@ -7941,7 +7820,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>68</v>
       </c>
@@ -7954,7 +7833,6 @@
       <c r="D134" t="s">
         <v>436</v>
       </c>
-      <c r="E134" t="s"/>
       <c r="F134" t="s">
         <v>14</v>
       </c>
@@ -7971,7 +7849,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>10</v>
       </c>
@@ -7984,7 +7862,6 @@
       <c r="D135" t="s">
         <v>439</v>
       </c>
-      <c r="E135" t="s"/>
       <c r="F135" t="s">
         <v>14</v>
       </c>
@@ -8001,7 +7878,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>75</v>
       </c>
@@ -8014,7 +7891,6 @@
       <c r="D136" t="s">
         <v>442</v>
       </c>
-      <c r="E136" t="s"/>
       <c r="F136" t="s">
         <v>14</v>
       </c>
@@ -8031,7 +7907,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>200</v>
       </c>
@@ -8044,7 +7920,6 @@
       <c r="D137" t="s">
         <v>27</v>
       </c>
-      <c r="E137" t="s"/>
       <c r="F137" t="s">
         <v>28</v>
       </c>
@@ -8061,7 +7936,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>57</v>
       </c>
@@ -8074,7 +7949,6 @@
       <c r="D138" t="s">
         <v>212</v>
       </c>
-      <c r="E138" t="s"/>
       <c r="F138" t="s">
         <v>14</v>
       </c>
@@ -8091,7 +7965,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>10</v>
       </c>
@@ -8104,7 +7978,6 @@
       <c r="D139" t="s">
         <v>448</v>
       </c>
-      <c r="E139" t="s"/>
       <c r="F139" t="s">
         <v>14</v>
       </c>
@@ -8121,7 +7994,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>258</v>
       </c>
@@ -8134,7 +8007,6 @@
       <c r="D140" t="s">
         <v>451</v>
       </c>
-      <c r="E140" t="s"/>
       <c r="F140" t="s">
         <v>14</v>
       </c>
@@ -8151,7 +8023,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>68</v>
       </c>
@@ -8164,7 +8036,6 @@
       <c r="D141" t="s">
         <v>454</v>
       </c>
-      <c r="E141" t="s"/>
       <c r="F141" t="s">
         <v>14</v>
       </c>
@@ -8181,7 +8052,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>10</v>
       </c>
@@ -8194,7 +8065,6 @@
       <c r="D142" t="s">
         <v>458</v>
       </c>
-      <c r="E142" t="s"/>
       <c r="F142" t="s">
         <v>14</v>
       </c>
@@ -8211,7 +8081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>188</v>
       </c>
@@ -8224,7 +8094,6 @@
       <c r="D143" t="s">
         <v>112</v>
       </c>
-      <c r="E143" t="s"/>
       <c r="F143" t="s">
         <v>14</v>
       </c>
@@ -8241,7 +8110,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>57</v>
       </c>
@@ -8254,7 +8123,6 @@
       <c r="D144" t="s">
         <v>462</v>
       </c>
-      <c r="E144" t="s"/>
       <c r="F144" t="s">
         <v>28</v>
       </c>
@@ -8271,7 +8139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>258</v>
       </c>
@@ -8284,7 +8152,6 @@
       <c r="D145" t="s">
         <v>466</v>
       </c>
-      <c r="E145" t="s"/>
       <c r="F145" t="s">
         <v>14</v>
       </c>
@@ -8301,7 +8168,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>24</v>
       </c>
@@ -8314,7 +8181,6 @@
       <c r="D146" t="s">
         <v>469</v>
       </c>
-      <c r="E146" t="s"/>
       <c r="F146" t="s">
         <v>14</v>
       </c>
@@ -8331,7 +8197,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>10</v>
       </c>
@@ -8344,7 +8210,6 @@
       <c r="D147" t="s">
         <v>473</v>
       </c>
-      <c r="E147" t="s"/>
       <c r="F147" t="s">
         <v>65</v>
       </c>
@@ -8361,7 +8226,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>90</v>
       </c>
@@ -8374,7 +8239,6 @@
       <c r="D148" t="s">
         <v>97</v>
       </c>
-      <c r="E148" t="s"/>
       <c r="F148" t="s">
         <v>14</v>
       </c>
@@ -8391,7 +8255,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>57</v>
       </c>
@@ -8404,7 +8268,6 @@
       <c r="D149" t="s">
         <v>478</v>
       </c>
-      <c r="E149" t="s"/>
       <c r="F149" t="s">
         <v>14</v>
       </c>
@@ -8421,7 +8284,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>10</v>
       </c>
@@ -8434,7 +8297,6 @@
       <c r="D150" t="s">
         <v>482</v>
       </c>
-      <c r="E150" t="s"/>
       <c r="F150" t="s">
         <v>28</v>
       </c>
@@ -8451,7 +8313,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>68</v>
       </c>
@@ -8464,7 +8326,6 @@
       <c r="D151" t="s">
         <v>54</v>
       </c>
-      <c r="E151" t="s"/>
       <c r="F151" t="s">
         <v>28</v>
       </c>
@@ -8481,7 +8342,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>10</v>
       </c>
@@ -8494,7 +8355,6 @@
       <c r="D152" t="s">
         <v>212</v>
       </c>
-      <c r="E152" t="s"/>
       <c r="F152" t="s">
         <v>14</v>
       </c>
@@ -8511,7 +8371,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>258</v>
       </c>
@@ -8524,7 +8384,6 @@
       <c r="D153" t="s">
         <v>462</v>
       </c>
-      <c r="E153" t="s"/>
       <c r="F153" t="s">
         <v>28</v>
       </c>
@@ -8541,7 +8400,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>188</v>
       </c>
@@ -8554,7 +8413,6 @@
       <c r="D154" t="s">
         <v>97</v>
       </c>
-      <c r="E154" t="s"/>
       <c r="F154" t="s">
         <v>14</v>
       </c>
@@ -8571,7 +8429,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>90</v>
       </c>
@@ -8584,7 +8442,6 @@
       <c r="D155" t="s">
         <v>267</v>
       </c>
-      <c r="E155" t="s"/>
       <c r="F155" t="s">
         <v>14</v>
       </c>
@@ -8601,7 +8458,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>194</v>
       </c>
@@ -8614,7 +8471,6 @@
       <c r="D156" t="s">
         <v>493</v>
       </c>
-      <c r="E156" t="s"/>
       <c r="F156" t="s">
         <v>65</v>
       </c>
@@ -8631,7 +8487,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>90</v>
       </c>
@@ -8644,7 +8500,6 @@
       <c r="D157" t="s">
         <v>112</v>
       </c>
-      <c r="E157" t="s"/>
       <c r="F157" t="s">
         <v>14</v>
       </c>
@@ -8661,7 +8516,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>90</v>
       </c>
@@ -8674,7 +8529,6 @@
       <c r="D158" t="s">
         <v>497</v>
       </c>
-      <c r="E158" t="s"/>
       <c r="F158" t="s">
         <v>14</v>
       </c>
@@ -8691,7 +8545,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>57</v>
       </c>
@@ -8704,7 +8558,6 @@
       <c r="D159" t="s">
         <v>501</v>
       </c>
-      <c r="E159" t="s"/>
       <c r="F159" t="s">
         <v>28</v>
       </c>
@@ -8721,7 +8574,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>75</v>
       </c>
@@ -8734,7 +8587,6 @@
       <c r="D160" t="s">
         <v>504</v>
       </c>
-      <c r="E160" t="s"/>
       <c r="F160" t="s">
         <v>14</v>
       </c>
@@ -8751,7 +8603,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>10</v>
       </c>
@@ -8764,7 +8616,6 @@
       <c r="D161" t="s">
         <v>33</v>
       </c>
-      <c r="E161" t="s"/>
       <c r="F161" t="s">
         <v>14</v>
       </c>
@@ -8781,7 +8632,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>24</v>
       </c>
@@ -8794,7 +8645,6 @@
       <c r="D162" t="s">
         <v>509</v>
       </c>
-      <c r="E162" t="s"/>
       <c r="F162" t="s">
         <v>14</v>
       </c>
@@ -8811,7 +8661,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>90</v>
       </c>
@@ -8824,7 +8674,6 @@
       <c r="D163" t="s">
         <v>288</v>
       </c>
-      <c r="E163" t="s"/>
       <c r="F163" t="s">
         <v>14</v>
       </c>
@@ -8841,7 +8690,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>90</v>
       </c>
@@ -8854,7 +8703,6 @@
       <c r="D164" t="s">
         <v>514</v>
       </c>
-      <c r="E164" t="s"/>
       <c r="F164" t="s">
         <v>65</v>
       </c>
@@ -8871,7 +8719,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>57</v>
       </c>
@@ -8884,7 +8732,6 @@
       <c r="D165" t="s">
         <v>519</v>
       </c>
-      <c r="E165" t="s"/>
       <c r="F165" t="s">
         <v>14</v>
       </c>
@@ -8901,7 +8748,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>75</v>
       </c>
@@ -8914,7 +8761,6 @@
       <c r="D166" t="s">
         <v>54</v>
       </c>
-      <c r="E166" t="s"/>
       <c r="F166" t="s">
         <v>28</v>
       </c>
@@ -8931,7 +8777,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>200</v>
       </c>
@@ -8944,7 +8790,6 @@
       <c r="D167" t="s">
         <v>212</v>
       </c>
-      <c r="E167" t="s"/>
       <c r="F167" t="s">
         <v>14</v>
       </c>
@@ -8961,7 +8806,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>258</v>
       </c>
@@ -8974,7 +8819,6 @@
       <c r="D168" t="s">
         <v>462</v>
       </c>
-      <c r="E168" t="s"/>
       <c r="F168" t="s">
         <v>28</v>
       </c>
@@ -8991,7 +8835,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>188</v>
       </c>
@@ -9004,7 +8848,6 @@
       <c r="D169" t="s">
         <v>112</v>
       </c>
-      <c r="E169" t="s"/>
       <c r="F169" t="s">
         <v>65</v>
       </c>
@@ -9021,7 +8864,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>194</v>
       </c>
@@ -9034,7 +8877,6 @@
       <c r="D170" t="s">
         <v>493</v>
       </c>
-      <c r="E170" t="s"/>
       <c r="F170" t="s">
         <v>14</v>
       </c>
@@ -9051,7 +8893,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>90</v>
       </c>
@@ -9064,7 +8906,6 @@
       <c r="D171" t="s">
         <v>514</v>
       </c>
-      <c r="E171" t="s"/>
       <c r="F171" t="s">
         <v>65</v>
       </c>
@@ -9081,7 +8922,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>90</v>
       </c>
@@ -9094,7 +8935,6 @@
       <c r="D172" t="s">
         <v>433</v>
       </c>
-      <c r="E172" t="s"/>
       <c r="F172" t="s">
         <v>14</v>
       </c>
@@ -9111,7 +8951,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>57</v>
       </c>
@@ -9124,7 +8964,6 @@
       <c r="D173" t="s">
         <v>27</v>
       </c>
-      <c r="E173" t="s"/>
       <c r="F173" t="s">
         <v>14</v>
       </c>
@@ -9141,7 +8980,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>57</v>
       </c>
@@ -9154,7 +8993,6 @@
       <c r="D174" t="s">
         <v>534</v>
       </c>
-      <c r="E174" t="s"/>
       <c r="F174" t="s">
         <v>14</v>
       </c>
@@ -9171,7 +9009,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>188</v>
       </c>
@@ -9184,7 +9022,6 @@
       <c r="D175" t="s">
         <v>538</v>
       </c>
-      <c r="E175" t="s"/>
       <c r="F175" t="s">
         <v>28</v>
       </c>
@@ -9201,7 +9038,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>24</v>
       </c>
@@ -9214,7 +9051,6 @@
       <c r="D176" t="s">
         <v>543</v>
       </c>
-      <c r="E176" t="s"/>
       <c r="F176" t="s">
         <v>14</v>
       </c>
@@ -9231,7 +9067,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>90</v>
       </c>
@@ -9244,7 +9080,6 @@
       <c r="D177" t="s">
         <v>547</v>
       </c>
-      <c r="E177" t="s"/>
       <c r="F177" t="s">
         <v>28</v>
       </c>
@@ -9261,7 +9096,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>90</v>
       </c>
@@ -9274,7 +9109,6 @@
       <c r="D178" t="s">
         <v>267</v>
       </c>
-      <c r="E178" t="s"/>
       <c r="F178" t="s">
         <v>14</v>
       </c>
@@ -9291,7 +9125,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>10</v>
       </c>
@@ -9304,7 +9138,6 @@
       <c r="D179" t="s">
         <v>454</v>
       </c>
-      <c r="E179" t="s"/>
       <c r="F179" t="s">
         <v>14</v>
       </c>
@@ -9321,7 +9154,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>258</v>
       </c>
@@ -9334,7 +9167,6 @@
       <c r="D180" t="s">
         <v>552</v>
       </c>
-      <c r="E180" t="s"/>
       <c r="F180" t="s">
         <v>14</v>
       </c>
@@ -9351,7 +9183,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>258</v>
       </c>
@@ -9364,7 +9196,6 @@
       <c r="D181" t="s">
         <v>555</v>
       </c>
-      <c r="E181" t="s"/>
       <c r="F181" t="s">
         <v>28</v>
       </c>
@@ -9381,7 +9212,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>75</v>
       </c>
@@ -9394,7 +9225,6 @@
       <c r="D182" t="s">
         <v>212</v>
       </c>
-      <c r="E182" t="s"/>
       <c r="F182" t="s">
         <v>28</v>
       </c>
@@ -9411,7 +9241,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>188</v>
       </c>
@@ -9424,7 +9254,6 @@
       <c r="D183" t="s">
         <v>112</v>
       </c>
-      <c r="E183" t="s"/>
       <c r="F183" t="s">
         <v>28</v>
       </c>
@@ -9441,7 +9270,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>75</v>
       </c>
@@ -9454,7 +9283,6 @@
       <c r="D184" t="s">
         <v>229</v>
       </c>
-      <c r="E184" t="s"/>
       <c r="F184" t="s">
         <v>14</v>
       </c>
@@ -9471,7 +9299,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>188</v>
       </c>
@@ -9484,7 +9312,6 @@
       <c r="D185" t="s">
         <v>318</v>
       </c>
-      <c r="E185" t="s"/>
       <c r="F185" t="s">
         <v>14</v>
       </c>
@@ -9501,7 +9328,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>90</v>
       </c>
@@ -9514,7 +9341,6 @@
       <c r="D186" t="s">
         <v>564</v>
       </c>
-      <c r="E186" t="s"/>
       <c r="F186" t="s">
         <v>14</v>
       </c>
@@ -9531,7 +9357,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>90</v>
       </c>
@@ -9544,7 +9370,6 @@
       <c r="D187" t="s">
         <v>567</v>
       </c>
-      <c r="E187" t="s"/>
       <c r="F187" t="s">
         <v>14</v>
       </c>
@@ -9561,7 +9386,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>570</v>
       </c>
@@ -9574,7 +9399,6 @@
       <c r="D188" t="s">
         <v>433</v>
       </c>
-      <c r="E188" t="s"/>
       <c r="F188" t="s">
         <v>28</v>
       </c>
@@ -9591,7 +9415,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>572</v>
       </c>
@@ -9604,7 +9428,6 @@
       <c r="D189" t="s">
         <v>120</v>
       </c>
-      <c r="E189" t="s"/>
       <c r="F189" t="s">
         <v>14</v>
       </c>
@@ -9621,7 +9444,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>194</v>
       </c>
@@ -9634,7 +9457,6 @@
       <c r="D190" t="s">
         <v>574</v>
       </c>
-      <c r="E190" t="s"/>
       <c r="F190" t="s">
         <v>28</v>
       </c>
@@ -9651,7 +9473,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>68</v>
       </c>
@@ -9664,7 +9486,6 @@
       <c r="D191" t="s">
         <v>439</v>
       </c>
-      <c r="E191" t="s"/>
       <c r="F191" t="s">
         <v>65</v>
       </c>
@@ -9681,7 +9502,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>10</v>
       </c>
@@ -9694,7 +9515,6 @@
       <c r="D192" t="s">
         <v>27</v>
       </c>
-      <c r="E192" t="s"/>
       <c r="F192" t="s">
         <v>14</v>
       </c>
@@ -9711,7 +9531,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>24</v>
       </c>
@@ -9724,7 +9544,6 @@
       <c r="D193" t="s">
         <v>164</v>
       </c>
-      <c r="E193" t="s"/>
       <c r="F193" t="s">
         <v>65</v>
       </c>
@@ -9741,7 +9560,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>68</v>
       </c>
@@ -9754,7 +9573,6 @@
       <c r="D194" t="s">
         <v>201</v>
       </c>
-      <c r="E194" t="s"/>
       <c r="F194" t="s">
         <v>14</v>
       </c>
@@ -9771,7 +9589,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>200</v>
       </c>
@@ -9784,7 +9602,6 @@
       <c r="D195" t="s">
         <v>581</v>
       </c>
-      <c r="E195" t="s"/>
       <c r="F195" t="s">
         <v>14</v>
       </c>
@@ -9801,7 +9618,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>10</v>
       </c>
@@ -9814,7 +9631,6 @@
       <c r="D196" t="s">
         <v>584</v>
       </c>
-      <c r="E196" t="s"/>
       <c r="F196" t="s">
         <v>14</v>
       </c>
@@ -9831,7 +9647,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>188</v>
       </c>
@@ -9844,7 +9660,6 @@
       <c r="D197" t="s">
         <v>229</v>
       </c>
-      <c r="E197" t="s"/>
       <c r="F197" t="s">
         <v>14</v>
       </c>
@@ -9861,7 +9676,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>57</v>
       </c>
@@ -9874,7 +9689,6 @@
       <c r="D198" t="s">
         <v>212</v>
       </c>
-      <c r="E198" t="s"/>
       <c r="F198" t="s">
         <v>14</v>
       </c>
@@ -9891,7 +9705,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>10</v>
       </c>
@@ -9904,7 +9718,6 @@
       <c r="D199" t="s">
         <v>27</v>
       </c>
-      <c r="E199" t="s"/>
       <c r="F199" t="s">
         <v>14</v>
       </c>
@@ -9921,7 +9734,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>10</v>
       </c>
@@ -9934,7 +9747,6 @@
       <c r="D200" t="s">
         <v>590</v>
       </c>
-      <c r="E200" t="s"/>
       <c r="F200" t="s">
         <v>14</v>
       </c>
@@ -9951,7 +9763,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>10</v>
       </c>
@@ -9964,7 +9776,6 @@
       <c r="D201" t="s">
         <v>593</v>
       </c>
-      <c r="E201" t="s"/>
       <c r="F201" t="s">
         <v>14</v>
       </c>
@@ -9981,7 +9792,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>188</v>
       </c>
@@ -9994,7 +9805,6 @@
       <c r="D202" t="s">
         <v>596</v>
       </c>
-      <c r="E202" t="s"/>
       <c r="F202" t="s">
         <v>28</v>
       </c>
@@ -10011,7 +9821,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>24</v>
       </c>
@@ -10024,7 +9834,6 @@
       <c r="D203" t="s">
         <v>54</v>
       </c>
-      <c r="E203" t="s"/>
       <c r="F203" t="s">
         <v>28</v>
       </c>
@@ -10041,7 +9850,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>90</v>
       </c>
@@ -10054,7 +9863,6 @@
       <c r="D204" t="s">
         <v>602</v>
       </c>
-      <c r="E204" t="s"/>
       <c r="F204" t="s">
         <v>65</v>
       </c>
@@ -10071,7 +9879,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>194</v>
       </c>
@@ -10084,7 +9892,6 @@
       <c r="D205" t="s">
         <v>606</v>
       </c>
-      <c r="E205" t="s"/>
       <c r="F205" t="s">
         <v>14</v>
       </c>
@@ -10101,7 +9908,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>10</v>
       </c>
@@ -10114,7 +9921,6 @@
       <c r="D206" t="s">
         <v>610</v>
       </c>
-      <c r="E206" t="s"/>
       <c r="F206" t="s">
         <v>28</v>
       </c>
@@ -10131,7 +9937,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>10</v>
       </c>
@@ -10144,7 +9950,6 @@
       <c r="D207" t="s">
         <v>454</v>
       </c>
-      <c r="E207" t="s"/>
       <c r="F207" t="s">
         <v>14</v>
       </c>
@@ -10161,7 +9966,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>10</v>
       </c>
@@ -10174,7 +9979,6 @@
       <c r="D208" t="s">
         <v>77</v>
       </c>
-      <c r="E208" t="s"/>
       <c r="F208" t="s">
         <v>65</v>
       </c>
@@ -10191,7 +9995,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>90</v>
       </c>
@@ -10204,7 +10008,6 @@
       <c r="D209" t="s">
         <v>615</v>
       </c>
-      <c r="E209" t="s"/>
       <c r="F209" t="s">
         <v>14</v>
       </c>
@@ -10221,7 +10024,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>57</v>
       </c>
@@ -10234,7 +10037,6 @@
       <c r="D210" t="s">
         <v>618</v>
       </c>
-      <c r="E210" t="s"/>
       <c r="F210" t="s">
         <v>14</v>
       </c>
@@ -10251,7 +10053,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>10</v>
       </c>
@@ -10264,7 +10066,6 @@
       <c r="D211" t="s">
         <v>622</v>
       </c>
-      <c r="E211" t="s"/>
       <c r="F211" t="s">
         <v>14</v>
       </c>
@@ -10281,7 +10082,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>10</v>
       </c>
@@ -10294,7 +10095,6 @@
       <c r="D212" t="s">
         <v>552</v>
       </c>
-      <c r="E212" t="s"/>
       <c r="F212" t="s">
         <v>14</v>
       </c>
@@ -10311,7 +10111,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>10</v>
       </c>
@@ -10324,7 +10124,6 @@
       <c r="D213" t="s">
         <v>626</v>
       </c>
-      <c r="E213" t="s"/>
       <c r="F213" t="s">
         <v>14</v>
       </c>
@@ -10341,7 +10140,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>68</v>
       </c>
@@ -10354,7 +10153,6 @@
       <c r="D214" t="s">
         <v>143</v>
       </c>
-      <c r="E214" t="s"/>
       <c r="F214" t="s">
         <v>14</v>
       </c>
@@ -10371,7 +10169,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>37</v>
       </c>
@@ -10384,7 +10182,6 @@
       <c r="D215" t="s">
         <v>27</v>
       </c>
-      <c r="E215" t="s"/>
       <c r="F215" t="s">
         <v>14</v>
       </c>
@@ -10401,7 +10198,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>200</v>
       </c>
@@ -10414,7 +10211,6 @@
       <c r="D216" t="s">
         <v>433</v>
       </c>
-      <c r="E216" t="s"/>
       <c r="F216" t="s">
         <v>14</v>
       </c>
@@ -10431,7 +10227,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>10</v>
       </c>
@@ -10444,7 +10240,6 @@
       <c r="D217" t="s">
         <v>54</v>
       </c>
-      <c r="E217" t="s"/>
       <c r="F217" t="s">
         <v>28</v>
       </c>
@@ -10461,7 +10256,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>10</v>
       </c>
@@ -10474,7 +10269,6 @@
       <c r="D218" t="s">
         <v>636</v>
       </c>
-      <c r="E218" t="s"/>
       <c r="F218" t="s">
         <v>65</v>
       </c>
@@ -10491,7 +10285,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>312</v>
       </c>
@@ -10504,7 +10298,6 @@
       <c r="D219" t="s">
         <v>639</v>
       </c>
-      <c r="E219" t="s"/>
       <c r="F219" t="s">
         <v>14</v>
       </c>
@@ -10521,7 +10314,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>68</v>
       </c>
@@ -10534,7 +10327,6 @@
       <c r="D220" t="s">
         <v>77</v>
       </c>
-      <c r="E220" t="s"/>
       <c r="F220" t="s">
         <v>65</v>
       </c>
@@ -10551,7 +10343,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>68</v>
       </c>
@@ -10564,7 +10356,6 @@
       <c r="D221" t="s">
         <v>644</v>
       </c>
-      <c r="E221" t="s"/>
       <c r="F221" t="s">
         <v>14</v>
       </c>
@@ -10581,7 +10372,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>90</v>
       </c>
@@ -10594,7 +10385,6 @@
       <c r="D222" t="s">
         <v>647</v>
       </c>
-      <c r="E222" t="s"/>
       <c r="F222" t="s">
         <v>14</v>
       </c>
@@ -10611,7 +10401,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>10</v>
       </c>
@@ -10624,7 +10414,6 @@
       <c r="D223" t="s">
         <v>650</v>
       </c>
-      <c r="E223" t="s"/>
       <c r="F223" t="s">
         <v>14</v>
       </c>
@@ -10641,7 +10430,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>10</v>
       </c>
@@ -10654,7 +10443,6 @@
       <c r="D224" t="s">
         <v>590</v>
       </c>
-      <c r="E224" t="s"/>
       <c r="F224" t="s">
         <v>65</v>
       </c>
@@ -10671,7 +10459,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>312</v>
       </c>
@@ -10684,7 +10472,6 @@
       <c r="D225" t="s">
         <v>655</v>
       </c>
-      <c r="E225" t="s"/>
       <c r="F225" t="s">
         <v>14</v>
       </c>
@@ -10701,7 +10488,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>10</v>
       </c>
@@ -10714,7 +10501,6 @@
       <c r="D226" t="s">
         <v>658</v>
       </c>
-      <c r="E226" t="s"/>
       <c r="F226" t="s">
         <v>14</v>
       </c>
@@ -10731,7 +10517,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>57</v>
       </c>
@@ -10744,7 +10530,6 @@
       <c r="D227" t="s">
         <v>77</v>
       </c>
-      <c r="E227" t="s"/>
       <c r="F227" t="s">
         <v>14</v>
       </c>
@@ -10761,7 +10546,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>10</v>
       </c>
@@ -10774,7 +10559,6 @@
       <c r="D228" t="s">
         <v>581</v>
       </c>
-      <c r="E228" t="s"/>
       <c r="F228" t="s">
         <v>14</v>
       </c>
@@ -10791,7 +10575,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>75</v>
       </c>
@@ -10804,7 +10588,6 @@
       <c r="D229" t="s">
         <v>212</v>
       </c>
-      <c r="E229" t="s"/>
       <c r="F229" t="s">
         <v>14</v>
       </c>
@@ -10821,7 +10604,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>57</v>
       </c>
@@ -10834,7 +10617,6 @@
       <c r="D230" t="s">
         <v>97</v>
       </c>
-      <c r="E230" t="s"/>
       <c r="F230" t="s">
         <v>14</v>
       </c>
@@ -10851,7 +10633,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>666</v>
       </c>
@@ -10864,7 +10646,6 @@
       <c r="D231" t="s">
         <v>397</v>
       </c>
-      <c r="E231" t="s"/>
       <c r="F231" t="s">
         <v>14</v>
       </c>
@@ -10881,7 +10662,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>188</v>
       </c>
@@ -10894,7 +10675,6 @@
       <c r="D232" t="s">
         <v>669</v>
       </c>
-      <c r="E232" t="s"/>
       <c r="F232" t="s">
         <v>14</v>
       </c>
@@ -10911,7 +10691,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>75</v>
       </c>
@@ -10924,7 +10704,6 @@
       <c r="D233" t="s">
         <v>673</v>
       </c>
-      <c r="E233" t="s"/>
       <c r="F233" t="s">
         <v>14</v>
       </c>
@@ -10941,7 +10720,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>312</v>
       </c>
@@ -10954,7 +10733,6 @@
       <c r="D234" t="s">
         <v>676</v>
       </c>
-      <c r="E234" t="s"/>
       <c r="F234" t="s">
         <v>14</v>
       </c>
@@ -10971,7 +10749,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>10</v>
       </c>
@@ -10984,7 +10762,6 @@
       <c r="D235" t="s">
         <v>679</v>
       </c>
-      <c r="E235" t="s"/>
       <c r="F235" t="s">
         <v>14</v>
       </c>
@@ -11001,7 +10778,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>90</v>
       </c>
@@ -11014,7 +10791,6 @@
       <c r="D236" t="s">
         <v>267</v>
       </c>
-      <c r="E236" t="s"/>
       <c r="F236" t="s">
         <v>14</v>
       </c>
@@ -11031,7 +10807,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>68</v>
       </c>
@@ -11044,7 +10820,6 @@
       <c r="D237" t="s">
         <v>454</v>
       </c>
-      <c r="E237" t="s"/>
       <c r="F237" t="s">
         <v>28</v>
       </c>
@@ -11061,7 +10836,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>57</v>
       </c>
@@ -11074,7 +10849,6 @@
       <c r="D238" t="s">
         <v>686</v>
       </c>
-      <c r="E238" t="s"/>
       <c r="F238" t="s">
         <v>65</v>
       </c>
@@ -11091,7 +10865,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>90</v>
       </c>
@@ -11104,7 +10878,6 @@
       <c r="D239" t="s">
         <v>689</v>
       </c>
-      <c r="E239" t="s"/>
       <c r="F239" t="s">
         <v>28</v>
       </c>
@@ -11121,7 +10894,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>10</v>
       </c>
@@ -11134,7 +10907,6 @@
       <c r="D240" t="s">
         <v>692</v>
       </c>
-      <c r="E240" t="s"/>
       <c r="F240" t="s">
         <v>14</v>
       </c>
@@ -11151,7 +10923,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>312</v>
       </c>
@@ -11164,7 +10936,6 @@
       <c r="D241" t="s">
         <v>695</v>
       </c>
-      <c r="E241" t="s"/>
       <c r="F241" t="s">
         <v>14</v>
       </c>
@@ -11181,7 +10952,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>68</v>
       </c>
@@ -11194,7 +10965,6 @@
       <c r="D242" t="s">
         <v>77</v>
       </c>
-      <c r="E242" t="s"/>
       <c r="F242" t="s">
         <v>65</v>
       </c>
@@ -11211,7 +10981,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>10</v>
       </c>
@@ -11224,7 +10994,6 @@
       <c r="D243" t="s">
         <v>686</v>
       </c>
-      <c r="E243" t="s"/>
       <c r="F243" t="s">
         <v>65</v>
       </c>
@@ -11241,7 +11010,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>258</v>
       </c>
@@ -11254,7 +11023,6 @@
       <c r="D244" t="s">
         <v>700</v>
       </c>
-      <c r="E244" t="s"/>
       <c r="F244" t="s">
         <v>28</v>
       </c>
@@ -11271,7 +11039,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>75</v>
       </c>
@@ -11284,7 +11052,6 @@
       <c r="D245" t="s">
         <v>54</v>
       </c>
-      <c r="E245" t="s"/>
       <c r="F245" t="s">
         <v>28</v>
       </c>
@@ -11301,7 +11068,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>37</v>
       </c>
@@ -11314,7 +11081,6 @@
       <c r="D246" t="s">
         <v>112</v>
       </c>
-      <c r="E246" t="s"/>
       <c r="F246" t="s">
         <v>65</v>
       </c>
@@ -11331,7 +11097,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>37</v>
       </c>
@@ -11344,7 +11110,6 @@
       <c r="D247" t="s">
         <v>212</v>
       </c>
-      <c r="E247" t="s"/>
       <c r="F247" t="s">
         <v>14</v>
       </c>
@@ -11361,7 +11126,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>200</v>
       </c>
@@ -11374,7 +11139,6 @@
       <c r="D248" t="s">
         <v>708</v>
       </c>
-      <c r="E248" t="s"/>
       <c r="F248" t="s">
         <v>65</v>
       </c>
@@ -11391,7 +11155,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>90</v>
       </c>
@@ -11404,7 +11168,6 @@
       <c r="D249" t="s">
         <v>711</v>
       </c>
-      <c r="E249" t="s"/>
       <c r="F249" t="s">
         <v>14</v>
       </c>
@@ -11421,7 +11184,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>10</v>
       </c>
@@ -11434,7 +11197,6 @@
       <c r="D250" t="s">
         <v>714</v>
       </c>
-      <c r="E250" t="s"/>
       <c r="F250" t="s">
         <v>65</v>
       </c>
@@ -11451,7 +11213,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>90</v>
       </c>
@@ -11464,7 +11226,6 @@
       <c r="D251" t="s">
         <v>717</v>
       </c>
-      <c r="E251" t="s"/>
       <c r="F251" t="s">
         <v>14</v>
       </c>
@@ -11481,7 +11242,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>10</v>
       </c>
@@ -11494,7 +11255,6 @@
       <c r="D252" t="s">
         <v>97</v>
       </c>
-      <c r="E252" t="s"/>
       <c r="F252" t="s">
         <v>14</v>
       </c>
@@ -11511,7 +11271,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>10</v>
       </c>
@@ -11524,7 +11284,6 @@
       <c r="D253" t="s">
         <v>658</v>
       </c>
-      <c r="E253" t="s"/>
       <c r="F253" t="s">
         <v>14</v>
       </c>
@@ -11541,7 +11300,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>68</v>
       </c>
@@ -11554,7 +11313,6 @@
       <c r="D254" t="s">
         <v>722</v>
       </c>
-      <c r="E254" t="s"/>
       <c r="F254" t="s">
         <v>41</v>
       </c>
@@ -11571,7 +11329,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>10</v>
       </c>
@@ -11584,7 +11342,6 @@
       <c r="D255" t="s">
         <v>725</v>
       </c>
-      <c r="E255" t="s"/>
       <c r="F255" t="s">
         <v>14</v>
       </c>
@@ -11601,7 +11358,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>10</v>
       </c>
@@ -11614,7 +11371,6 @@
       <c r="D256" t="s">
         <v>729</v>
       </c>
-      <c r="E256" t="s"/>
       <c r="F256" t="s">
         <v>14</v>
       </c>
@@ -11631,7 +11387,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>57</v>
       </c>
@@ -11644,7 +11400,6 @@
       <c r="D257" t="s">
         <v>77</v>
       </c>
-      <c r="E257" t="s"/>
       <c r="F257" t="s">
         <v>65</v>
       </c>
@@ -11661,7 +11416,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>75</v>
       </c>
@@ -11674,7 +11429,6 @@
       <c r="D258" t="s">
         <v>212</v>
       </c>
-      <c r="E258" t="s"/>
       <c r="F258" t="s">
         <v>14</v>
       </c>
@@ -11691,7 +11445,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>10</v>
       </c>
@@ -11704,7 +11458,6 @@
       <c r="D259" t="s">
         <v>734</v>
       </c>
-      <c r="E259" t="s"/>
       <c r="F259" t="s">
         <v>65</v>
       </c>
@@ -11721,7 +11474,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>10</v>
       </c>
@@ -11734,7 +11487,6 @@
       <c r="D260" t="s">
         <v>288</v>
       </c>
-      <c r="E260" t="s"/>
       <c r="F260" t="s">
         <v>14</v>
       </c>
@@ -11751,7 +11503,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>194</v>
       </c>
@@ -11764,7 +11516,6 @@
       <c r="D261" t="s">
         <v>606</v>
       </c>
-      <c r="E261" t="s"/>
       <c r="F261" t="s">
         <v>14</v>
       </c>
@@ -11781,7 +11532,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>10</v>
       </c>
@@ -11794,7 +11545,6 @@
       <c r="D262" t="s">
         <v>739</v>
       </c>
-      <c r="E262" t="s"/>
       <c r="F262" t="s">
         <v>14</v>
       </c>
@@ -11811,7 +11561,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>10</v>
       </c>
@@ -11824,7 +11574,6 @@
       <c r="D263" t="s">
         <v>742</v>
       </c>
-      <c r="E263" t="s"/>
       <c r="F263" t="s">
         <v>14</v>
       </c>
@@ -11841,7 +11590,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>10</v>
       </c>
@@ -11854,7 +11603,6 @@
       <c r="D264" t="s">
         <v>745</v>
       </c>
-      <c r="E264" t="s"/>
       <c r="F264" t="s">
         <v>65</v>
       </c>
@@ -11871,7 +11619,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>68</v>
       </c>
@@ -11884,7 +11632,6 @@
       <c r="D265" t="s">
         <v>749</v>
       </c>
-      <c r="E265" t="s"/>
       <c r="F265" t="s">
         <v>14</v>
       </c>
@@ -11901,7 +11648,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>312</v>
       </c>
@@ -11914,7 +11661,6 @@
       <c r="D266" t="s">
         <v>120</v>
       </c>
-      <c r="E266" t="s"/>
       <c r="F266" t="s">
         <v>14</v>
       </c>
@@ -11931,7 +11677,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>10</v>
       </c>
@@ -11944,7 +11690,6 @@
       <c r="D267" t="s">
         <v>754</v>
       </c>
-      <c r="E267" t="s"/>
       <c r="F267" t="s">
         <v>14</v>
       </c>
@@ -11961,7 +11706,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>10</v>
       </c>
@@ -11974,7 +11719,6 @@
       <c r="D268" t="s">
         <v>757</v>
       </c>
-      <c r="E268" t="s"/>
       <c r="F268" t="s">
         <v>28</v>
       </c>
@@ -11991,7 +11735,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>258</v>
       </c>
@@ -12004,7 +11748,6 @@
       <c r="D269" t="s">
         <v>761</v>
       </c>
-      <c r="E269" t="s"/>
       <c r="F269" t="s">
         <v>14</v>
       </c>
@@ -12021,7 +11764,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>90</v>
       </c>
@@ -12034,7 +11777,6 @@
       <c r="D270" t="s">
         <v>448</v>
       </c>
-      <c r="E270" t="s"/>
       <c r="F270" t="s">
         <v>14</v>
       </c>
@@ -12051,7 +11793,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>75</v>
       </c>
@@ -12064,7 +11806,6 @@
       <c r="D271" t="s">
         <v>164</v>
       </c>
-      <c r="E271" t="s"/>
       <c r="F271" t="s">
         <v>14</v>
       </c>
@@ -12081,7 +11822,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>68</v>
       </c>
@@ -12094,7 +11835,6 @@
       <c r="D272" t="s">
         <v>766</v>
       </c>
-      <c r="E272" t="s"/>
       <c r="F272" t="s">
         <v>65</v>
       </c>
@@ -12111,7 +11851,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>90</v>
       </c>
@@ -12124,7 +11864,6 @@
       <c r="D273" t="s">
         <v>107</v>
       </c>
-      <c r="E273" t="s"/>
       <c r="F273" t="s">
         <v>28</v>
       </c>
@@ -12141,7 +11880,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>24</v>
       </c>
@@ -12154,7 +11893,6 @@
       <c r="D274" t="s">
         <v>772</v>
       </c>
-      <c r="E274" t="s"/>
       <c r="F274" t="s">
         <v>65</v>
       </c>
@@ -12171,7 +11909,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>75</v>
       </c>
@@ -12184,7 +11922,6 @@
       <c r="D275" t="s">
         <v>469</v>
       </c>
-      <c r="E275" t="s"/>
       <c r="F275" t="s">
         <v>28</v>
       </c>
@@ -12201,7 +11938,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>90</v>
       </c>
@@ -12214,7 +11951,6 @@
       <c r="D276" t="s">
         <v>658</v>
       </c>
-      <c r="E276" t="s"/>
       <c r="F276" t="s">
         <v>14</v>
       </c>
@@ -12231,7 +11967,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>37</v>
       </c>
@@ -12244,7 +11980,6 @@
       <c r="D277" t="s">
         <v>212</v>
       </c>
-      <c r="E277" t="s"/>
       <c r="F277" t="s">
         <v>14</v>
       </c>
@@ -12261,7 +11996,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>194</v>
       </c>
@@ -12274,7 +12009,6 @@
       <c r="D278" t="s">
         <v>778</v>
       </c>
-      <c r="E278" t="s"/>
       <c r="F278" t="s">
         <v>14</v>
       </c>
@@ -12291,7 +12025,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>68</v>
       </c>
@@ -12304,7 +12038,6 @@
       <c r="D279" t="s">
         <v>781</v>
       </c>
-      <c r="E279" t="s"/>
       <c r="F279" t="s">
         <v>14</v>
       </c>
@@ -12321,7 +12054,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>57</v>
       </c>
@@ -12334,7 +12067,6 @@
       <c r="D280" t="s">
         <v>784</v>
       </c>
-      <c r="E280" t="s"/>
       <c r="F280" t="s">
         <v>28</v>
       </c>
@@ -12351,7 +12083,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>68</v>
       </c>
@@ -12364,7 +12096,6 @@
       <c r="D281" t="s">
         <v>439</v>
       </c>
-      <c r="E281" t="s"/>
       <c r="F281" t="s">
         <v>14</v>
       </c>
@@ -12381,7 +12112,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>10</v>
       </c>
@@ -12394,7 +12125,6 @@
       <c r="D282" t="s">
         <v>790</v>
       </c>
-      <c r="E282" t="s"/>
       <c r="F282" t="s">
         <v>28</v>
       </c>
@@ -12411,7 +12141,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>194</v>
       </c>
@@ -12424,7 +12154,6 @@
       <c r="D283" t="s">
         <v>793</v>
       </c>
-      <c r="E283" t="s"/>
       <c r="F283" t="s">
         <v>14</v>
       </c>
@@ -12441,7 +12170,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>188</v>
       </c>
@@ -12454,7 +12183,6 @@
       <c r="D284" t="s">
         <v>112</v>
       </c>
-      <c r="E284" t="s"/>
       <c r="F284" t="s">
         <v>14</v>
       </c>
@@ -12471,7 +12199,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>10</v>
       </c>
@@ -12484,7 +12212,6 @@
       <c r="D285" t="s">
         <v>797</v>
       </c>
-      <c r="E285" t="s"/>
       <c r="F285" t="s">
         <v>14</v>
       </c>
@@ -12501,7 +12228,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>312</v>
       </c>
@@ -12514,7 +12241,6 @@
       <c r="D286" t="s">
         <v>363</v>
       </c>
-      <c r="E286" t="s"/>
       <c r="F286" t="s">
         <v>14</v>
       </c>
@@ -12531,7 +12257,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>10</v>
       </c>
@@ -12544,7 +12270,6 @@
       <c r="D287" t="s">
         <v>212</v>
       </c>
-      <c r="E287" t="s"/>
       <c r="F287" t="s">
         <v>14</v>
       </c>
@@ -12561,7 +12286,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>68</v>
       </c>
@@ -12574,7 +12299,6 @@
       <c r="D288" t="s">
         <v>27</v>
       </c>
-      <c r="E288" t="s"/>
       <c r="F288" t="s">
         <v>28</v>
       </c>
@@ -12591,7 +12315,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>37</v>
       </c>
@@ -12604,7 +12328,6 @@
       <c r="D289" t="s">
         <v>804</v>
       </c>
-      <c r="E289" t="s"/>
       <c r="F289" t="s">
         <v>14</v>
       </c>
@@ -12621,7 +12344,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>10</v>
       </c>
@@ -12634,7 +12357,6 @@
       <c r="D290" t="s">
         <v>343</v>
       </c>
-      <c r="E290" t="s"/>
       <c r="F290" t="s">
         <v>14</v>
       </c>
@@ -12651,7 +12373,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>75</v>
       </c>
@@ -12664,7 +12386,6 @@
       <c r="D291" t="s">
         <v>808</v>
       </c>
-      <c r="E291" t="s"/>
       <c r="F291" t="s">
         <v>14</v>
       </c>
@@ -12681,7 +12402,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>312</v>
       </c>
@@ -12694,7 +12415,6 @@
       <c r="D292" t="s">
         <v>514</v>
       </c>
-      <c r="E292" t="s"/>
       <c r="F292" t="s">
         <v>14</v>
       </c>
@@ -12711,7 +12431,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>10</v>
       </c>
@@ -12724,7 +12444,6 @@
       <c r="D293" t="s">
         <v>143</v>
       </c>
-      <c r="E293" t="s"/>
       <c r="F293" t="s">
         <v>14</v>
       </c>
@@ -12741,7 +12460,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>10</v>
       </c>
@@ -12754,7 +12473,6 @@
       <c r="D294" t="s">
         <v>397</v>
       </c>
-      <c r="E294" t="s"/>
       <c r="F294" t="s">
         <v>28</v>
       </c>
@@ -12771,7 +12489,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>90</v>
       </c>
@@ -12784,7 +12502,6 @@
       <c r="D295" t="s">
         <v>814</v>
       </c>
-      <c r="E295" t="s"/>
       <c r="F295" t="s">
         <v>14</v>
       </c>
@@ -12801,7 +12518,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>10</v>
       </c>
@@ -12814,7 +12531,6 @@
       <c r="D296" t="s">
         <v>54</v>
       </c>
-      <c r="E296" t="s"/>
       <c r="F296" t="s">
         <v>28</v>
       </c>
@@ -12831,7 +12547,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>57</v>
       </c>
@@ -12844,7 +12560,6 @@
       <c r="D297" t="s">
         <v>819</v>
       </c>
-      <c r="E297" t="s"/>
       <c r="F297" t="s">
         <v>65</v>
       </c>
@@ -12861,7 +12576,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>194</v>
       </c>
@@ -12874,7 +12589,6 @@
       <c r="D298" t="s">
         <v>433</v>
       </c>
-      <c r="E298" t="s"/>
       <c r="F298" t="s">
         <v>28</v>
       </c>
@@ -12891,7 +12605,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>10</v>
       </c>
@@ -12904,7 +12618,6 @@
       <c r="D299" t="s">
         <v>824</v>
       </c>
-      <c r="E299" t="s"/>
       <c r="F299" t="s">
         <v>14</v>
       </c>
@@ -12921,7 +12634,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>90</v>
       </c>
@@ -12934,7 +12647,6 @@
       <c r="D300" t="s">
         <v>827</v>
       </c>
-      <c r="E300" t="s"/>
       <c r="F300" t="s">
         <v>65</v>
       </c>
@@ -12951,7 +12663,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>75</v>
       </c>
@@ -12964,7 +12676,6 @@
       <c r="D301" t="s">
         <v>831</v>
       </c>
-      <c r="E301" t="s"/>
       <c r="F301" t="s">
         <v>28</v>
       </c>
@@ -12981,7 +12692,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>10</v>
       </c>
@@ -12994,7 +12705,6 @@
       <c r="D302" t="s">
         <v>212</v>
       </c>
-      <c r="E302" t="s"/>
       <c r="F302" t="s">
         <v>14</v>
       </c>
@@ -13011,7 +12721,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>100</v>
       </c>
@@ -13024,7 +12734,6 @@
       <c r="D303" t="s">
         <v>835</v>
       </c>
-      <c r="E303" t="s"/>
       <c r="F303" t="s">
         <v>14</v>
       </c>
@@ -13041,7 +12750,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>839</v>
       </c>
@@ -13054,7 +12763,6 @@
       <c r="D304" t="s">
         <v>840</v>
       </c>
-      <c r="E304" t="s"/>
       <c r="F304" t="s">
         <v>14</v>
       </c>
@@ -13071,7 +12779,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>10</v>
       </c>
@@ -13084,7 +12792,6 @@
       <c r="D305" t="s">
         <v>843</v>
       </c>
-      <c r="E305" t="s"/>
       <c r="F305" t="s">
         <v>65</v>
       </c>
@@ -13101,7 +12808,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>68</v>
       </c>
@@ -13114,7 +12821,6 @@
       <c r="D306" t="s">
         <v>766</v>
       </c>
-      <c r="E306" t="s"/>
       <c r="F306" t="s">
         <v>65</v>
       </c>
@@ -13131,7 +12837,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>188</v>
       </c>
@@ -13144,7 +12850,6 @@
       <c r="D307" t="s">
         <v>847</v>
       </c>
-      <c r="E307" t="s"/>
       <c r="F307" t="s">
         <v>41</v>
       </c>
@@ -13161,7 +12866,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>188</v>
       </c>
@@ -13174,7 +12879,6 @@
       <c r="D308" t="s">
         <v>112</v>
       </c>
-      <c r="E308" t="s"/>
       <c r="F308" t="s">
         <v>14</v>
       </c>
@@ -13191,7 +12895,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>10</v>
       </c>
@@ -13204,7 +12908,6 @@
       <c r="D309" t="s">
         <v>851</v>
       </c>
-      <c r="E309" t="s"/>
       <c r="F309" t="s">
         <v>14</v>
       </c>
@@ -13221,7 +12924,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>90</v>
       </c>
@@ -13234,7 +12937,6 @@
       <c r="D310" t="s">
         <v>854</v>
       </c>
-      <c r="E310" t="s"/>
       <c r="F310" t="s">
         <v>14</v>
       </c>
@@ -13251,7 +12953,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>200</v>
       </c>
@@ -13264,7 +12966,6 @@
       <c r="D311" t="s">
         <v>33</v>
       </c>
-      <c r="E311" t="s"/>
       <c r="F311" t="s">
         <v>14</v>
       </c>
@@ -13281,7 +12982,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>200</v>
       </c>
@@ -13294,7 +12995,6 @@
       <c r="D312" t="s">
         <v>778</v>
       </c>
-      <c r="E312" t="s"/>
       <c r="F312" t="s">
         <v>14</v>
       </c>
@@ -13311,7 +13011,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>860</v>
       </c>
@@ -13324,7 +13024,6 @@
       <c r="D313" t="s">
         <v>64</v>
       </c>
-      <c r="E313" t="s"/>
       <c r="F313" t="s">
         <v>65</v>
       </c>
@@ -13341,7 +13040,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>75</v>
       </c>
@@ -13354,7 +13053,6 @@
       <c r="D314" t="s">
         <v>862</v>
       </c>
-      <c r="E314" t="s"/>
       <c r="F314" t="s">
         <v>65</v>
       </c>
@@ -13371,7 +13069,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>10</v>
       </c>
@@ -13384,7 +13082,6 @@
       <c r="D315" t="s">
         <v>391</v>
       </c>
-      <c r="E315" t="s"/>
       <c r="F315" t="s">
         <v>14</v>
       </c>
@@ -13401,7 +13098,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>10</v>
       </c>
@@ -13414,7 +13111,6 @@
       <c r="D316" t="s">
         <v>143</v>
       </c>
-      <c r="E316" t="s"/>
       <c r="F316" t="s">
         <v>14</v>
       </c>
@@ -13431,7 +13127,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>10</v>
       </c>
@@ -13444,7 +13140,6 @@
       <c r="D317" t="s">
         <v>212</v>
       </c>
-      <c r="E317" t="s"/>
       <c r="F317" t="s">
         <v>14</v>
       </c>
@@ -13461,7 +13156,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>37</v>
       </c>
@@ -13474,7 +13169,6 @@
       <c r="D318" t="s">
         <v>97</v>
       </c>
-      <c r="E318" t="s"/>
       <c r="F318" t="s">
         <v>28</v>
       </c>
@@ -13491,7 +13185,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>869</v>
       </c>
@@ -13504,7 +13198,6 @@
       <c r="D319" t="s">
         <v>397</v>
       </c>
-      <c r="E319" t="s"/>
       <c r="F319" t="s">
         <v>65</v>
       </c>
@@ -13521,7 +13214,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>10</v>
       </c>
@@ -13534,7 +13227,6 @@
       <c r="D320" t="s">
         <v>636</v>
       </c>
-      <c r="E320" t="s"/>
       <c r="F320" t="s">
         <v>41</v>
       </c>
@@ -13551,7 +13243,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>10</v>
       </c>
@@ -13564,7 +13256,6 @@
       <c r="D321" t="s">
         <v>27</v>
       </c>
-      <c r="E321" t="s"/>
       <c r="F321" t="s">
         <v>14</v>
       </c>
@@ -13581,7 +13272,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>200</v>
       </c>
@@ -13594,7 +13285,6 @@
       <c r="D322" t="s">
         <v>708</v>
       </c>
-      <c r="E322" t="s"/>
       <c r="F322" t="s">
         <v>14</v>
       </c>
@@ -13611,7 +13301,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>68</v>
       </c>
@@ -13624,7 +13314,6 @@
       <c r="D323" t="s">
         <v>602</v>
       </c>
-      <c r="E323" t="s"/>
       <c r="F323" t="s">
         <v>14</v>
       </c>
@@ -13641,7 +13330,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>68</v>
       </c>
@@ -13654,7 +13343,6 @@
       <c r="D324" t="s">
         <v>875</v>
       </c>
-      <c r="E324" t="s"/>
       <c r="F324" t="s">
         <v>28</v>
       </c>
@@ -13671,7 +13359,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>75</v>
       </c>
@@ -13684,7 +13372,6 @@
       <c r="D325" t="s">
         <v>610</v>
       </c>
-      <c r="E325" t="s"/>
       <c r="F325" t="s">
         <v>28</v>
       </c>
@@ -13701,7 +13388,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>57</v>
       </c>
@@ -13714,7 +13401,6 @@
       <c r="D326" t="s">
         <v>879</v>
       </c>
-      <c r="E326" t="s"/>
       <c r="F326" t="s">
         <v>28</v>
       </c>
@@ -13731,7 +13417,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>75</v>
       </c>
@@ -13744,7 +13430,6 @@
       <c r="D327" t="s">
         <v>882</v>
       </c>
-      <c r="E327" t="s"/>
       <c r="F327" t="s">
         <v>14</v>
       </c>
@@ -13761,7 +13446,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>57</v>
       </c>
@@ -13774,7 +13459,6 @@
       <c r="D328" t="s">
         <v>267</v>
       </c>
-      <c r="E328" t="s"/>
       <c r="F328" t="s">
         <v>14</v>
       </c>
@@ -13791,7 +13475,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>75</v>
       </c>
@@ -13804,7 +13488,6 @@
       <c r="D329" t="s">
         <v>887</v>
       </c>
-      <c r="E329" t="s"/>
       <c r="F329" t="s">
         <v>14</v>
       </c>
@@ -13821,7 +13504,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>90</v>
       </c>
@@ -13834,7 +13517,6 @@
       <c r="D330" t="s">
         <v>890</v>
       </c>
-      <c r="E330" t="s"/>
       <c r="F330" t="s">
         <v>14</v>
       </c>
@@ -13851,7 +13533,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>24</v>
       </c>
@@ -13864,7 +13546,6 @@
       <c r="D331" t="s">
         <v>493</v>
       </c>
-      <c r="E331" t="s"/>
       <c r="F331" t="s">
         <v>14</v>
       </c>
@@ -13881,7 +13562,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>90</v>
       </c>
@@ -13894,7 +13575,6 @@
       <c r="D332" t="s">
         <v>602</v>
       </c>
-      <c r="E332" t="s"/>
       <c r="F332" t="s">
         <v>65</v>
       </c>
@@ -13911,7 +13591,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>10</v>
       </c>
@@ -13924,7 +13604,6 @@
       <c r="D333" t="s">
         <v>27</v>
       </c>
-      <c r="E333" t="s"/>
       <c r="F333" t="s">
         <v>14</v>
       </c>
@@ -13941,7 +13620,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>68</v>
       </c>
@@ -13954,7 +13633,6 @@
       <c r="D334" t="s">
         <v>896</v>
       </c>
-      <c r="E334" t="s"/>
       <c r="F334" t="s">
         <v>14</v>
       </c>
@@ -13971,7 +13649,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>188</v>
       </c>
@@ -13984,7 +13662,6 @@
       <c r="D335" t="s">
         <v>313</v>
       </c>
-      <c r="E335" t="s"/>
       <c r="F335" t="s">
         <v>41</v>
       </c>
@@ -14001,7 +13678,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>24</v>
       </c>
@@ -14014,7 +13691,6 @@
       <c r="D336" t="s">
         <v>900</v>
       </c>
-      <c r="E336" t="s"/>
       <c r="F336" t="s">
         <v>14</v>
       </c>
@@ -14031,7 +13707,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>75</v>
       </c>
@@ -14044,7 +13720,6 @@
       <c r="D337" t="s">
         <v>212</v>
       </c>
-      <c r="E337" t="s"/>
       <c r="F337" t="s">
         <v>14</v>
       </c>
@@ -14061,7 +13736,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>100</v>
       </c>
@@ -14074,7 +13749,6 @@
       <c r="D338" t="s">
         <v>904</v>
       </c>
-      <c r="E338" t="s"/>
       <c r="F338" t="s">
         <v>65</v>
       </c>
@@ -14091,7 +13765,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>10</v>
       </c>
@@ -14104,7 +13778,6 @@
       <c r="D339" t="s">
         <v>907</v>
       </c>
-      <c r="E339" t="s"/>
       <c r="F339" t="s">
         <v>14</v>
       </c>
@@ -14121,7 +13794,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>90</v>
       </c>
@@ -14134,7 +13807,6 @@
       <c r="D340" t="s">
         <v>911</v>
       </c>
-      <c r="E340" t="s"/>
       <c r="F340" t="s">
         <v>14</v>
       </c>
@@ -14151,7 +13823,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>57</v>
       </c>
@@ -14164,7 +13836,6 @@
       <c r="D341" t="s">
         <v>439</v>
       </c>
-      <c r="E341" t="s"/>
       <c r="F341" t="s">
         <v>14</v>
       </c>
@@ -14181,7 +13852,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>10</v>
       </c>
@@ -14194,7 +13865,6 @@
       <c r="D342" t="s">
         <v>134</v>
       </c>
-      <c r="E342" t="s"/>
       <c r="F342" t="s">
         <v>14</v>
       </c>
@@ -14211,7 +13881,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>90</v>
       </c>
@@ -14224,7 +13894,6 @@
       <c r="D343" t="s">
         <v>711</v>
       </c>
-      <c r="E343" t="s"/>
       <c r="F343" t="s">
         <v>14</v>
       </c>
@@ -14241,7 +13910,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>75</v>
       </c>
@@ -14254,7 +13923,6 @@
       <c r="D344" t="s">
         <v>177</v>
       </c>
-      <c r="E344" t="s"/>
       <c r="F344" t="s">
         <v>14</v>
       </c>
@@ -14271,7 +13939,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>920</v>
       </c>
@@ -14284,7 +13952,6 @@
       <c r="D345" t="s">
         <v>164</v>
       </c>
-      <c r="E345" t="s"/>
       <c r="F345" t="s">
         <v>65</v>
       </c>
@@ -14301,7 +13968,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>194</v>
       </c>
@@ -14314,7 +13981,6 @@
       <c r="D346" t="s">
         <v>922</v>
       </c>
-      <c r="E346" t="s"/>
       <c r="F346" t="s">
         <v>14</v>
       </c>
@@ -14331,7 +13997,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>925</v>
       </c>
@@ -14344,7 +14010,6 @@
       <c r="D347" t="s">
         <v>212</v>
       </c>
-      <c r="E347" t="s"/>
       <c r="F347" t="s">
         <v>28</v>
       </c>
@@ -14361,7 +14026,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>928</v>
       </c>
@@ -14374,7 +14039,6 @@
       <c r="D348" t="s">
         <v>177</v>
       </c>
-      <c r="E348" t="s"/>
       <c r="F348" t="s">
         <v>28</v>
       </c>
@@ -14391,7 +14055,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>37</v>
       </c>
@@ -14404,7 +14068,6 @@
       <c r="D349" t="s">
         <v>313</v>
       </c>
-      <c r="E349" t="s"/>
       <c r="F349" t="s">
         <v>65</v>
       </c>
@@ -14421,7 +14084,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>90</v>
       </c>
@@ -14434,7 +14097,6 @@
       <c r="D350" t="s">
         <v>932</v>
       </c>
-      <c r="E350" t="s"/>
       <c r="F350" t="s">
         <v>28</v>
       </c>
@@ -14451,7 +14113,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="351">
+    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>10</v>
       </c>
@@ -14464,7 +14126,6 @@
       <c r="D351" t="s">
         <v>590</v>
       </c>
-      <c r="E351" t="s"/>
       <c r="F351" t="s">
         <v>14</v>
       </c>
@@ -14481,7 +14142,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>90</v>
       </c>
@@ -14494,7 +14155,6 @@
       <c r="D352" t="s">
         <v>107</v>
       </c>
-      <c r="E352" t="s"/>
       <c r="F352" t="s">
         <v>28</v>
       </c>
@@ -14511,7 +14171,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="353">
+    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>10</v>
       </c>
@@ -14524,7 +14184,6 @@
       <c r="D353" t="s">
         <v>940</v>
       </c>
-      <c r="E353" t="s"/>
       <c r="F353" t="s">
         <v>14</v>
       </c>
@@ -14541,7 +14200,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>10</v>
       </c>
@@ -14554,7 +14213,6 @@
       <c r="D354" t="s">
         <v>944</v>
       </c>
-      <c r="E354" t="s"/>
       <c r="F354" t="s">
         <v>65</v>
       </c>
@@ -14571,7 +14229,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>258</v>
       </c>
@@ -14584,7 +14242,6 @@
       <c r="D355" t="s">
         <v>947</v>
       </c>
-      <c r="E355" t="s"/>
       <c r="F355" t="s">
         <v>14</v>
       </c>
@@ -14601,7 +14258,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>75</v>
       </c>
@@ -14614,7 +14271,6 @@
       <c r="D356" t="s">
         <v>952</v>
       </c>
-      <c r="E356" t="s"/>
       <c r="F356" t="s">
         <v>14</v>
       </c>
@@ -14631,7 +14287,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>37</v>
       </c>
@@ -14644,7 +14300,6 @@
       <c r="D357" t="s">
         <v>581</v>
       </c>
-      <c r="E357" t="s"/>
       <c r="F357" t="s">
         <v>14</v>
       </c>
@@ -14661,7 +14316,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>200</v>
       </c>
@@ -14674,7 +14329,6 @@
       <c r="D358" t="s">
         <v>956</v>
       </c>
-      <c r="E358" t="s"/>
       <c r="F358" t="s">
         <v>28</v>
       </c>
@@ -14691,7 +14345,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>90</v>
       </c>
@@ -14704,7 +14358,6 @@
       <c r="D359" t="s">
         <v>229</v>
       </c>
-      <c r="E359" t="s"/>
       <c r="F359" t="s">
         <v>14</v>
       </c>
@@ -14721,7 +14374,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>10</v>
       </c>
@@ -14734,7 +14387,6 @@
       <c r="D360" t="s">
         <v>960</v>
       </c>
-      <c r="E360" t="s"/>
       <c r="F360" t="s">
         <v>14</v>
       </c>
@@ -14751,7 +14403,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>258</v>
       </c>
@@ -14764,7 +14416,6 @@
       <c r="D361" t="s">
         <v>184</v>
       </c>
-      <c r="E361" t="s"/>
       <c r="F361" t="s">
         <v>14</v>
       </c>
@@ -14781,7 +14432,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>75</v>
       </c>
@@ -14794,7 +14445,6 @@
       <c r="D362" t="s">
         <v>212</v>
       </c>
-      <c r="E362" t="s"/>
       <c r="F362" t="s">
         <v>14</v>
       </c>
@@ -14811,7 +14461,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>10</v>
       </c>
@@ -14824,7 +14474,6 @@
       <c r="D363" t="s">
         <v>433</v>
       </c>
-      <c r="E363" t="s"/>
       <c r="F363" t="s">
         <v>14</v>
       </c>
@@ -14841,7 +14490,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>10</v>
       </c>
@@ -14854,7 +14503,6 @@
       <c r="D364" t="s">
         <v>754</v>
       </c>
-      <c r="E364" t="s"/>
       <c r="F364" t="s">
         <v>14</v>
       </c>
@@ -14871,7 +14519,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>57</v>
       </c>
@@ -14884,7 +14532,6 @@
       <c r="D365" t="s">
         <v>77</v>
       </c>
-      <c r="E365" t="s"/>
       <c r="F365" t="s">
         <v>14</v>
       </c>
@@ -14901,7 +14548,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="366">
+    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>10</v>
       </c>
@@ -14914,7 +14561,6 @@
       <c r="D366" t="s">
         <v>969</v>
       </c>
-      <c r="E366" t="s"/>
       <c r="F366" t="s">
         <v>65</v>
       </c>
@@ -14931,7 +14577,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="367">
+    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>68</v>
       </c>
@@ -14944,7 +14590,6 @@
       <c r="D367" t="s">
         <v>160</v>
       </c>
-      <c r="E367" t="s"/>
       <c r="F367" t="s">
         <v>972</v>
       </c>
@@ -14961,7 +14606,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="368">
+    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>10</v>
       </c>
@@ -14974,7 +14619,6 @@
       <c r="D368" t="s">
         <v>974</v>
       </c>
-      <c r="E368" t="s"/>
       <c r="F368" t="s">
         <v>14</v>
       </c>
@@ -14991,7 +14635,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="369">
+    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>10</v>
       </c>
@@ -15004,7 +14648,6 @@
       <c r="D369" t="s">
         <v>979</v>
       </c>
-      <c r="E369" t="s"/>
       <c r="F369" t="s">
         <v>28</v>
       </c>
@@ -15021,7 +14664,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="370">
+    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>90</v>
       </c>
@@ -15034,7 +14677,6 @@
       <c r="D370" t="s">
         <v>982</v>
       </c>
-      <c r="E370" t="s"/>
       <c r="F370" t="s">
         <v>14</v>
       </c>
@@ -15051,7 +14693,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>75</v>
       </c>
@@ -15064,7 +14706,6 @@
       <c r="D371" t="s">
         <v>458</v>
       </c>
-      <c r="E371" t="s"/>
       <c r="F371" t="s">
         <v>28</v>
       </c>
@@ -15081,7 +14722,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="372">
+    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>24</v>
       </c>
@@ -15094,7 +14735,6 @@
       <c r="D372" t="s">
         <v>986</v>
       </c>
-      <c r="E372" t="s"/>
       <c r="F372" t="s">
         <v>65</v>
       </c>
@@ -15111,7 +14751,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="373">
+    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>57</v>
       </c>
@@ -15124,7 +14764,6 @@
       <c r="D373" t="s">
         <v>991</v>
       </c>
-      <c r="E373" t="s"/>
       <c r="F373" t="s">
         <v>28</v>
       </c>
@@ -15141,7 +14780,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="374">
+    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>57</v>
       </c>
@@ -15154,7 +14793,6 @@
       <c r="D374" t="s">
         <v>593</v>
       </c>
-      <c r="E374" t="s"/>
       <c r="F374" t="s">
         <v>14</v>
       </c>
@@ -15171,7 +14809,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="375">
+    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>75</v>
       </c>
@@ -15184,7 +14822,6 @@
       <c r="D375" t="s">
         <v>995</v>
       </c>
-      <c r="E375" t="s"/>
       <c r="F375" t="s">
         <v>28</v>
       </c>
@@ -15201,7 +14838,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="376">
+    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>10</v>
       </c>
@@ -15214,7 +14851,6 @@
       <c r="D376" t="s">
         <v>304</v>
       </c>
-      <c r="E376" t="s"/>
       <c r="F376" t="s">
         <v>14</v>
       </c>
@@ -15231,7 +14867,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="377">
+    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>75</v>
       </c>
@@ -15244,7 +14880,6 @@
       <c r="D377" t="s">
         <v>212</v>
       </c>
-      <c r="E377" t="s"/>
       <c r="F377" t="s">
         <v>14</v>
       </c>
@@ -15261,7 +14896,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="378">
+    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>10</v>
       </c>
@@ -15274,7 +14909,6 @@
       <c r="D378" t="s">
         <v>1003</v>
       </c>
-      <c r="E378" t="s"/>
       <c r="F378" t="s">
         <v>14</v>
       </c>
@@ -15291,7 +14925,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="379">
+    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>10</v>
       </c>
@@ -15304,7 +14938,6 @@
       <c r="D379" t="s">
         <v>1006</v>
       </c>
-      <c r="E379" t="s"/>
       <c r="F379" t="s">
         <v>14</v>
       </c>
@@ -15321,7 +14954,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="380">
+    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>68</v>
       </c>
@@ -15334,7 +14967,6 @@
       <c r="D380" t="s">
         <v>1009</v>
       </c>
-      <c r="E380" t="s"/>
       <c r="F380" t="s">
         <v>14</v>
       </c>
@@ -15351,7 +14983,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="381">
+    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>10</v>
       </c>
@@ -15364,7 +14996,6 @@
       <c r="D381" t="s">
         <v>1012</v>
       </c>
-      <c r="E381" t="s"/>
       <c r="F381" t="s">
         <v>14</v>
       </c>
@@ -15381,7 +15012,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="382">
+    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>10</v>
       </c>
@@ -15394,7 +15025,6 @@
       <c r="D382" t="s">
         <v>1015</v>
       </c>
-      <c r="E382" t="s"/>
       <c r="F382" t="s">
         <v>14</v>
       </c>
@@ -15411,7 +15041,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="383">
+    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>1018</v>
       </c>
@@ -15424,7 +15054,6 @@
       <c r="D383" t="s">
         <v>115</v>
       </c>
-      <c r="E383" t="s"/>
       <c r="F383" t="s">
         <v>14</v>
       </c>
@@ -15441,7 +15070,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="384">
+    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>57</v>
       </c>
@@ -15454,7 +15083,6 @@
       <c r="D384" t="s">
         <v>433</v>
       </c>
-      <c r="E384" t="s"/>
       <c r="F384" t="s">
         <v>28</v>
       </c>
@@ -15471,7 +15099,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="385">
+    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>10</v>
       </c>
@@ -15484,7 +15112,6 @@
       <c r="D385" t="s">
         <v>107</v>
       </c>
-      <c r="E385" t="s"/>
       <c r="F385" t="s">
         <v>65</v>
       </c>
@@ -15501,7 +15128,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="386">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>1023</v>
       </c>
@@ -15514,7 +15141,6 @@
       <c r="D386" t="s">
         <v>97</v>
       </c>
-      <c r="E386" t="s"/>
       <c r="F386" t="s">
         <v>14</v>
       </c>
@@ -15531,7 +15157,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="387">
+    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>57</v>
       </c>
@@ -15544,7 +15170,6 @@
       <c r="D387" t="s">
         <v>1025</v>
       </c>
-      <c r="E387" t="s"/>
       <c r="F387" t="s">
         <v>65</v>
       </c>
@@ -15561,7 +15186,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="388">
+    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>10</v>
       </c>
@@ -15574,7 +15199,6 @@
       <c r="D388" t="s">
         <v>991</v>
       </c>
-      <c r="E388" t="s"/>
       <c r="F388" t="s">
         <v>28</v>
       </c>
@@ -15591,7 +15215,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="389">
+    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>57</v>
       </c>
@@ -15604,7 +15228,6 @@
       <c r="D389" t="s">
         <v>77</v>
       </c>
-      <c r="E389" t="s"/>
       <c r="F389" t="s">
         <v>14</v>
       </c>
@@ -15621,7 +15244,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="390">
+    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>68</v>
       </c>
@@ -15634,7 +15257,6 @@
       <c r="D390" t="s">
         <v>33</v>
       </c>
-      <c r="E390" t="s"/>
       <c r="F390" t="s">
         <v>14</v>
       </c>
@@ -15651,7 +15273,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="391">
+    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>10</v>
       </c>
@@ -15664,7 +15286,6 @@
       <c r="D391" t="s">
         <v>1033</v>
       </c>
-      <c r="E391" t="s"/>
       <c r="F391" t="s">
         <v>14</v>
       </c>
@@ -15681,7 +15302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="392">
+    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>10</v>
       </c>
@@ -15694,7 +15315,6 @@
       <c r="D392" t="s">
         <v>212</v>
       </c>
-      <c r="E392" t="s"/>
       <c r="F392" t="s">
         <v>14</v>
       </c>
@@ -15711,7 +15331,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="393">
+    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>258</v>
       </c>
@@ -15724,7 +15344,6 @@
       <c r="D393" t="s">
         <v>1037</v>
       </c>
-      <c r="E393" t="s"/>
       <c r="F393" t="s">
         <v>14</v>
       </c>
@@ -15741,7 +15360,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="394">
+    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>68</v>
       </c>
@@ -15754,7 +15373,6 @@
       <c r="D394" t="s">
         <v>602</v>
       </c>
-      <c r="E394" t="s"/>
       <c r="F394" t="s">
         <v>14</v>
       </c>
@@ -15771,7 +15389,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="395">
+    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>90</v>
       </c>
@@ -15784,7 +15402,6 @@
       <c r="D395" t="s">
         <v>1042</v>
       </c>
-      <c r="E395" t="s"/>
       <c r="F395" t="s">
         <v>14</v>
       </c>
@@ -15801,7 +15418,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="396">
+    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>68</v>
       </c>
@@ -15814,7 +15431,6 @@
       <c r="D396" t="s">
         <v>291</v>
       </c>
-      <c r="E396" t="s"/>
       <c r="F396" t="s">
         <v>41</v>
       </c>
@@ -15831,7 +15447,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="397">
+    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>24</v>
       </c>
@@ -15844,7 +15460,6 @@
       <c r="D397" t="s">
         <v>164</v>
       </c>
-      <c r="E397" t="s"/>
       <c r="F397" t="s">
         <v>14</v>
       </c>
@@ -15861,7 +15476,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="398">
+    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>90</v>
       </c>
@@ -15874,7 +15489,6 @@
       <c r="D398" t="s">
         <v>1047</v>
       </c>
-      <c r="E398" t="s"/>
       <c r="F398" t="s">
         <v>14</v>
       </c>
@@ -15891,7 +15505,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="399">
+    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>57</v>
       </c>
@@ -15904,7 +15518,6 @@
       <c r="D399" t="s">
         <v>1050</v>
       </c>
-      <c r="E399" t="s"/>
       <c r="F399" t="s">
         <v>41</v>
       </c>
@@ -15921,7 +15534,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="400">
+    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>57</v>
       </c>
@@ -15934,7 +15547,6 @@
       <c r="D400" t="s">
         <v>1053</v>
       </c>
-      <c r="E400" t="s"/>
       <c r="F400" t="s">
         <v>14</v>
       </c>
@@ -15951,7 +15563,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="401">
+    <row r="401" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>57</v>
       </c>
@@ -15964,7 +15576,6 @@
       <c r="D401" t="s">
         <v>1056</v>
       </c>
-      <c r="E401" t="s"/>
       <c r="F401" t="s">
         <v>65</v>
       </c>
@@ -15981,7 +15592,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="402">
+    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>188</v>
       </c>
@@ -15994,7 +15605,6 @@
       <c r="D402" t="s">
         <v>112</v>
       </c>
-      <c r="E402" t="s"/>
       <c r="F402" t="s">
         <v>14</v>
       </c>
@@ -16011,7 +15621,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="403">
+    <row r="403" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>10</v>
       </c>
@@ -16024,7 +15634,6 @@
       <c r="D403" t="s">
         <v>689</v>
       </c>
-      <c r="E403" t="s"/>
       <c r="F403" t="s">
         <v>14</v>
       </c>
@@ -16041,7 +15650,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="404">
+    <row r="404" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>312</v>
       </c>
@@ -16054,7 +15663,6 @@
       <c r="D404" t="s">
         <v>1062</v>
       </c>
-      <c r="E404" t="s"/>
       <c r="F404" t="s">
         <v>14</v>
       </c>
@@ -16071,7 +15679,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="405">
+    <row r="405" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>57</v>
       </c>
@@ -16084,7 +15692,6 @@
       <c r="D405" t="s">
         <v>1065</v>
       </c>
-      <c r="E405" t="s"/>
       <c r="F405" t="s">
         <v>14</v>
       </c>
@@ -16101,7 +15708,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="406">
+    <row r="406" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>68</v>
       </c>
@@ -16114,7 +15721,6 @@
       <c r="D406" t="s">
         <v>331</v>
       </c>
-      <c r="E406" t="s"/>
       <c r="F406" t="s">
         <v>65</v>
       </c>
@@ -16131,7 +15737,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="407">
+    <row r="407" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>68</v>
       </c>
@@ -16144,7 +15750,6 @@
       <c r="D407" t="s">
         <v>1069</v>
       </c>
-      <c r="E407" t="s"/>
       <c r="F407" t="s">
         <v>65</v>
       </c>
@@ -16161,7 +15766,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="408">
+    <row r="408" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>57</v>
       </c>
@@ -16174,7 +15779,6 @@
       <c r="D408" t="s">
         <v>134</v>
       </c>
-      <c r="E408" t="s"/>
       <c r="F408" t="s">
         <v>14</v>
       </c>
@@ -16191,7 +15795,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="409">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>10</v>
       </c>
@@ -16204,7 +15808,6 @@
       <c r="D409" t="s">
         <v>1073</v>
       </c>
-      <c r="E409" t="s"/>
       <c r="F409" t="s">
         <v>65</v>
       </c>
@@ -16221,7 +15824,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="410">
+    <row r="410" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>24</v>
       </c>
@@ -16234,7 +15837,6 @@
       <c r="D410" t="s">
         <v>995</v>
       </c>
-      <c r="E410" t="s"/>
       <c r="F410" t="s">
         <v>41</v>
       </c>
@@ -16251,7 +15853,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="411">
+    <row r="411" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>10</v>
       </c>
@@ -16264,7 +15866,6 @@
       <c r="D411" t="s">
         <v>1078</v>
       </c>
-      <c r="E411" t="s"/>
       <c r="F411" t="s">
         <v>28</v>
       </c>
@@ -16281,7 +15882,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="412">
+    <row r="412" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>75</v>
       </c>
@@ -16294,7 +15895,6 @@
       <c r="D412" t="s">
         <v>1081</v>
       </c>
-      <c r="E412" t="s"/>
       <c r="F412" t="s">
         <v>14</v>
       </c>
@@ -16311,7 +15911,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="413">
+    <row r="413" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>200</v>
       </c>
@@ -16324,7 +15924,6 @@
       <c r="D413" t="s">
         <v>212</v>
       </c>
-      <c r="E413" t="s"/>
       <c r="F413" t="s">
         <v>28</v>
       </c>
@@ -16341,7 +15940,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="414">
+    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>188</v>
       </c>
@@ -16354,7 +15953,6 @@
       <c r="D414" t="s">
         <v>711</v>
       </c>
-      <c r="E414" t="s"/>
       <c r="F414" t="s">
         <v>14</v>
       </c>
@@ -16371,7 +15969,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="415">
+    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>90</v>
       </c>
@@ -16384,7 +15982,6 @@
       <c r="D415" t="s">
         <v>1086</v>
       </c>
-      <c r="E415" t="s"/>
       <c r="F415" t="s">
         <v>28</v>
       </c>
@@ -16401,7 +15998,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="416">
+    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>10</v>
       </c>
@@ -16414,7 +16011,6 @@
       <c r="D416" t="s">
         <v>1089</v>
       </c>
-      <c r="E416" t="s"/>
       <c r="F416" t="s">
         <v>14</v>
       </c>
@@ -16431,7 +16027,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="417">
+    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>1092</v>
       </c>
@@ -16444,7 +16040,6 @@
       <c r="D417" t="s">
         <v>1050</v>
       </c>
-      <c r="E417" t="s"/>
       <c r="F417" t="s">
         <v>65</v>
       </c>
@@ -16461,7 +16056,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="418">
+    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>10</v>
       </c>
@@ -16474,7 +16069,6 @@
       <c r="D418" t="s">
         <v>1094</v>
       </c>
-      <c r="E418" t="s"/>
       <c r="F418" t="s">
         <v>14</v>
       </c>
@@ -16491,7 +16085,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="419">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>10</v>
       </c>
@@ -16504,7 +16098,6 @@
       <c r="D419" t="s">
         <v>1098</v>
       </c>
-      <c r="E419" t="s"/>
       <c r="F419" t="s">
         <v>14</v>
       </c>
@@ -16521,7 +16114,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="420">
+    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>194</v>
       </c>
@@ -16534,7 +16127,6 @@
       <c r="D420" t="s">
         <v>164</v>
       </c>
-      <c r="E420" t="s"/>
       <c r="F420" t="s">
         <v>65</v>
       </c>
@@ -16551,7 +16143,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="421">
+    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>312</v>
       </c>
@@ -16564,7 +16156,6 @@
       <c r="D421" t="s">
         <v>1102</v>
       </c>
-      <c r="E421" t="s"/>
       <c r="F421" t="s">
         <v>14</v>
       </c>
@@ -16581,7 +16172,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="422">
+    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>24</v>
       </c>
@@ -16594,7 +16185,6 @@
       <c r="D422" t="s">
         <v>212</v>
       </c>
-      <c r="E422" t="s"/>
       <c r="F422" t="s">
         <v>14</v>
       </c>
@@ -16611,7 +16201,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="423">
+    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>68</v>
       </c>
@@ -16624,7 +16214,6 @@
       <c r="D423" t="s">
         <v>1106</v>
       </c>
-      <c r="E423" t="s"/>
       <c r="F423" t="s">
         <v>14</v>
       </c>
@@ -16641,7 +16230,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="424">
+    <row r="424" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>68</v>
       </c>
@@ -16654,7 +16243,6 @@
       <c r="D424" t="s">
         <v>54</v>
       </c>
-      <c r="E424" t="s"/>
       <c r="F424" t="s">
         <v>28</v>
       </c>
@@ -16671,7 +16259,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="425">
+    <row r="425" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>1110</v>
       </c>
@@ -16684,7 +16272,6 @@
       <c r="D425" t="s">
         <v>433</v>
       </c>
-      <c r="E425" t="s"/>
       <c r="F425" t="s">
         <v>14</v>
       </c>
@@ -16701,7 +16288,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="426">
+    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>57</v>
       </c>
@@ -16714,7 +16301,6 @@
       <c r="D426" t="s">
         <v>1112</v>
       </c>
-      <c r="E426" t="s"/>
       <c r="F426" t="s">
         <v>28</v>
       </c>
@@ -16731,7 +16317,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="427">
+    <row r="427" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>312</v>
       </c>
@@ -16744,7 +16330,6 @@
       <c r="D427" t="s">
         <v>1115</v>
       </c>
-      <c r="E427" t="s"/>
       <c r="F427" t="s">
         <v>14</v>
       </c>
@@ -16761,7 +16346,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="428">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>200</v>
       </c>
@@ -16774,7 +16359,6 @@
       <c r="D428" t="s">
         <v>1118</v>
       </c>
-      <c r="E428" t="s"/>
       <c r="F428" t="s">
         <v>65</v>
       </c>
@@ -16791,7 +16375,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="429">
+    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>75</v>
       </c>
@@ -16804,7 +16388,6 @@
       <c r="D429" t="s">
         <v>1122</v>
       </c>
-      <c r="E429" t="s"/>
       <c r="F429" t="s">
         <v>65</v>
       </c>
@@ -16821,7 +16404,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="430">
+    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>57</v>
       </c>
@@ -16834,7 +16417,6 @@
       <c r="D430" t="s">
         <v>1125</v>
       </c>
-      <c r="E430" t="s"/>
       <c r="F430" t="s">
         <v>14</v>
       </c>
@@ -16851,7 +16433,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="431">
+    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>24</v>
       </c>
@@ -16864,7 +16446,6 @@
       <c r="D431" t="s">
         <v>793</v>
       </c>
-      <c r="E431" t="s"/>
       <c r="F431" t="s">
         <v>14</v>
       </c>
@@ -16881,7 +16462,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="432">
+    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>200</v>
       </c>
@@ -16894,7 +16475,6 @@
       <c r="D432" t="s">
         <v>1129</v>
       </c>
-      <c r="E432" t="s"/>
       <c r="F432" t="s">
         <v>65</v>
       </c>
@@ -16911,7 +16491,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="433">
+    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>10</v>
       </c>
@@ -16924,7 +16504,6 @@
       <c r="D433" t="s">
         <v>27</v>
       </c>
-      <c r="E433" t="s"/>
       <c r="F433" t="s">
         <v>28</v>
       </c>
@@ -16941,7 +16520,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="434">
+    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>24</v>
       </c>
@@ -16954,7 +16533,6 @@
       <c r="D434" t="s">
         <v>112</v>
       </c>
-      <c r="E434" t="s"/>
       <c r="F434" t="s">
         <v>14</v>
       </c>
@@ -16971,7 +16549,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="435">
+    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>24</v>
       </c>
@@ -16984,7 +16562,6 @@
       <c r="D435" t="s">
         <v>1135</v>
       </c>
-      <c r="E435" t="s"/>
       <c r="F435" t="s">
         <v>14</v>
       </c>
@@ -17001,7 +16578,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="436">
+    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>312</v>
       </c>
@@ -17014,7 +16591,6 @@
       <c r="D436" t="s">
         <v>1138</v>
       </c>
-      <c r="E436" t="s"/>
       <c r="F436" t="s">
         <v>14</v>
       </c>
@@ -17031,7 +16607,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="437">
+    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>57</v>
       </c>
@@ -17044,7 +16620,6 @@
       <c r="D437" t="s">
         <v>212</v>
       </c>
-      <c r="E437" t="s"/>
       <c r="F437" t="s">
         <v>14</v>
       </c>
@@ -17061,7 +16636,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="438">
+    <row r="438" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>90</v>
       </c>
@@ -17074,7 +16649,6 @@
       <c r="D438" t="s">
         <v>356</v>
       </c>
-      <c r="E438" t="s"/>
       <c r="F438" t="s">
         <v>65</v>
       </c>
@@ -17091,7 +16665,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="439">
+    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>10</v>
       </c>
@@ -17104,7 +16678,6 @@
       <c r="D439" t="s">
         <v>1143</v>
       </c>
-      <c r="E439" t="s"/>
       <c r="F439" t="s">
         <v>14</v>
       </c>
@@ -17121,7 +16694,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="440">
+    <row r="440" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>10</v>
       </c>
@@ -17134,7 +16707,6 @@
       <c r="D440" t="s">
         <v>1146</v>
       </c>
-      <c r="E440" t="s"/>
       <c r="F440" t="s">
         <v>14</v>
       </c>
@@ -17151,7 +16723,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="441">
+    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>10</v>
       </c>
@@ -17164,7 +16736,6 @@
       <c r="D441" t="s">
         <v>304</v>
       </c>
-      <c r="E441" t="s"/>
       <c r="F441" t="s">
         <v>14</v>
       </c>
@@ -17181,7 +16752,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="442">
+    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>57</v>
       </c>
@@ -17194,7 +16765,6 @@
       <c r="D442" t="s">
         <v>1150</v>
       </c>
-      <c r="E442" t="s"/>
       <c r="F442" t="s">
         <v>65</v>
       </c>
@@ -17211,7 +16781,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="443">
+    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>10</v>
       </c>
@@ -17224,7 +16794,6 @@
       <c r="D443" t="s">
         <v>1153</v>
       </c>
-      <c r="E443" t="s"/>
       <c r="F443" t="s">
         <v>14</v>
       </c>
@@ -17241,7 +16810,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="444">
+    <row r="444" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>1156</v>
       </c>
@@ -17254,7 +16823,6 @@
       <c r="D444" t="s">
         <v>1157</v>
       </c>
-      <c r="E444" t="s"/>
       <c r="F444" t="s">
         <v>14</v>
       </c>
@@ -17271,7 +16839,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="445">
+    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>10</v>
       </c>
@@ -17284,7 +16852,6 @@
       <c r="D445" t="s">
         <v>40</v>
       </c>
-      <c r="E445" t="s"/>
       <c r="F445" t="s">
         <v>14</v>
       </c>
@@ -17301,7 +16868,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="446">
+    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>10</v>
       </c>
@@ -17314,7 +16881,6 @@
       <c r="D446" t="s">
         <v>1161</v>
       </c>
-      <c r="E446" t="s"/>
       <c r="F446" t="s">
         <v>14</v>
       </c>
@@ -17331,7 +16897,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="447">
+    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>258</v>
       </c>
@@ -17344,7 +16910,6 @@
       <c r="D447" t="s">
         <v>1165</v>
       </c>
-      <c r="E447" t="s"/>
       <c r="F447" t="s">
         <v>14</v>
       </c>
@@ -17361,7 +16926,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="448">
+    <row r="448" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>258</v>
       </c>
@@ -17374,7 +16939,6 @@
       <c r="D448" t="s">
         <v>1168</v>
       </c>
-      <c r="E448" t="s"/>
       <c r="F448" t="s">
         <v>14</v>
       </c>
@@ -17391,7 +16955,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="449">
+    <row r="449" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>10</v>
       </c>
@@ -17404,7 +16968,6 @@
       <c r="D449" t="s">
         <v>1171</v>
       </c>
-      <c r="E449" t="s"/>
       <c r="F449" t="s">
         <v>14</v>
       </c>
@@ -17421,7 +16984,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="450">
+    <row r="450" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>90</v>
       </c>
@@ -17434,7 +16997,6 @@
       <c r="D450" t="s">
         <v>1174</v>
       </c>
-      <c r="E450" t="s"/>
       <c r="F450" t="s">
         <v>65</v>
       </c>
@@ -17451,7 +17013,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="451">
+    <row r="451" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>10</v>
       </c>
@@ -17464,7 +17026,6 @@
       <c r="D451" t="s">
         <v>1177</v>
       </c>
-      <c r="E451" t="s"/>
       <c r="F451" t="s">
         <v>28</v>
       </c>
@@ -17482,10 +17043,17 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <autoFilter ref="C1:C451">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="深圳"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
